--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\DAM2T Programació II\UFs\UF6 POO. Introducció a la Persistència en BD\P2 ExcelTucom (Tomcat, jsp, servlets)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A440FC2-4B76-4A8E-B8F8-267C8D99D62D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="25935" windowHeight="16575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UF1" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Práctica 3" sheetId="6" r:id="rId4"/>
     <sheet name="Examen 1" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="183">
   <si>
     <t>Apellidos</t>
   </si>
@@ -32,9 +26,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>Nota Final</t>
   </si>
   <si>
@@ -521,9 +512,6 @@
     <t>EX4</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
     <t>NOTA FINAL</t>
   </si>
   <si>
@@ -539,9 +527,6 @@
     <t>Examen 1</t>
   </si>
   <si>
-    <t>NF</t>
-  </si>
-  <si>
     <t>Ejercicio 1</t>
   </si>
   <si>
@@ -579,13 +564,16 @@
   </si>
   <si>
     <t>Ejercicio Extra</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -779,13 +767,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1209,7 +1190,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1261,9 +1242,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1304,9 +1282,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1325,82 +1300,61 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Énfasis1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Buena" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Cálculo 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Celda de comprobación 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Celda vinculada 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Encabezado 4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Énfasis1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Énfasis2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Énfasis3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Énfasis4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Énfasis5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Énfasis6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Entrada 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Incorrecto 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Neutral 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="3"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="4"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="5"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="10"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="6"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="7"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="11"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="8"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="9"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="10"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="11"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="12"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="13"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="14"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="15"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="25"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="26"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="16"/>
+    <cellStyle name="Buena" xfId="17"/>
+    <cellStyle name="Cálculo 2" xfId="18"/>
+    <cellStyle name="Celda de comprobación 2" xfId="19"/>
+    <cellStyle name="Celda vinculada 2" xfId="20"/>
+    <cellStyle name="Encabezado 4 2" xfId="21"/>
+    <cellStyle name="Énfasis1 2" xfId="22"/>
+    <cellStyle name="Énfasis2 2" xfId="23"/>
+    <cellStyle name="Énfasis3 2" xfId="24"/>
+    <cellStyle name="Énfasis4 2" xfId="25"/>
+    <cellStyle name="Énfasis5 2" xfId="26"/>
+    <cellStyle name="Énfasis6 2" xfId="27"/>
+    <cellStyle name="Entrada 2" xfId="28"/>
+    <cellStyle name="Incorrecto 2" xfId="29"/>
+    <cellStyle name="Neutral 2" xfId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Notas 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Salida 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Texto de advertencia 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Texto explicativo 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Título 1" xfId="36" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Título 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Título 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Título 4" xfId="35" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Total 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Notas 2" xfId="31"/>
+    <cellStyle name="Salida 2" xfId="32"/>
+    <cellStyle name="Texto de advertencia 2" xfId="33"/>
+    <cellStyle name="Texto explicativo 2" xfId="34"/>
+    <cellStyle name="Título 1" xfId="36"/>
+    <cellStyle name="Título 2 2" xfId="37"/>
+    <cellStyle name="Título 3 2" xfId="38"/>
+    <cellStyle name="Título 4" xfId="35"/>
+    <cellStyle name="Total 2" xfId="39"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -1550,7 +1504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,26 +1537,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1635,23 +1572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1827,17 +1747,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1846,50 +1766,65 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="6" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>165</v>
+      <c r="G1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="40">
-        <v>10</v>
-      </c>
-      <c r="D2" s="40">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38">
+        <v>10</v>
+      </c>
+      <c r="D2" s="38">
         <v>20</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="38">
         <v>30</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="38">
         <v>30</v>
       </c>
-      <c r="G2" s="40">
-        <v>10</v>
-      </c>
-      <c r="H2" s="40">
+      <c r="G2" s="38">
+        <v>10</v>
+      </c>
+      <c r="H2" s="38">
         <v>100</v>
+      </c>
+      <c r="I2" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,34 +1834,34 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>149</v>
+      <c r="G3" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>152</v>
+      <c r="A4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="20">
         <f>TRUNC('Práctica 1'!L4,2)</f>
@@ -1939,25 +1874,25 @@
       <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
         <v>1</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>157</v>
+      <c r="I4" s="34" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>153</v>
+      <c r="A5" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -1976,20 +1911,20 @@
       <c r="G5" s="20">
         <v>10</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f t="shared" ref="H5:H33" si="0">(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2)/100</f>
         <v>8.0150000000000006</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>158</v>
+      <c r="I5" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>154</v>
+      <c r="A6" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="20">
         <f>TRUNC('Práctica 1'!L5,2)</f>
@@ -2010,20 +1945,20 @@
       <c r="G6" s="20">
         <v>10</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
         <v>6.1260000000000003</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>158</v>
+      <c r="I6" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>155</v>
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C7" s="20">
         <f>TRUNC('Práctica 1'!L6,2)</f>
@@ -2044,20 +1979,20 @@
       <c r="G7" s="20">
         <v>10</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <f t="shared" si="0"/>
         <v>7.9989999999999997</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>158</v>
+      <c r="I7" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>156</v>
+      <c r="A8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C8" s="20">
         <f>TRUNC('Práctica 1'!L7,2)</f>
@@ -2078,20 +2013,20 @@
       <c r="G8" s="20">
         <v>10</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f t="shared" si="0"/>
         <v>5.8479999999999999</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>158</v>
+      <c r="I8" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C9" s="20">
         <f>TRUNC('Práctica 1'!L8,2)</f>
@@ -2112,20 +2047,20 @@
       <c r="G9" s="20">
         <v>5</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <f t="shared" si="0"/>
         <v>3.6549999999999998</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>159</v>
+      <c r="I9" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>153</v>
+      <c r="A10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="20">
         <f>TRUNC('Práctica 1'!L9,2)</f>
@@ -2146,20 +2081,20 @@
       <c r="G10" s="20">
         <v>10</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <f t="shared" si="0"/>
         <v>7.9470000000000001</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>158</v>
+      <c r="I10" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>154</v>
+      <c r="A11" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C11" s="20">
         <f>TRUNC('Práctica 1'!L10,2)</f>
@@ -2180,20 +2115,20 @@
       <c r="G11" s="20">
         <v>10</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>7.41</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>158</v>
+      <c r="I11" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>155</v>
+      <c r="A12" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C12" s="20">
         <f>TRUNC('Práctica 1'!L11,2)</f>
@@ -2214,20 +2149,20 @@
       <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <f t="shared" si="0"/>
         <v>5.0789999999999997</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>160</v>
+      <c r="I12" s="33" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>156</v>
+      <c r="A13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="20">
         <f>TRUNC('Práctica 1'!L12,2)</f>
@@ -2248,20 +2183,20 @@
       <c r="G13" s="20">
         <v>2</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <f t="shared" si="0"/>
         <v>0.59799999999999998</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>160</v>
+      <c r="I13" s="33" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>152</v>
+      <c r="A14" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="20">
         <f>TRUNC('Práctica 1'!L13,2)</f>
@@ -2282,20 +2217,20 @@
       <c r="G14" s="20">
         <v>10</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <f t="shared" si="0"/>
         <v>8.3579999999999988</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>158</v>
+      <c r="I14" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>153</v>
+      <c r="A15" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="20">
         <f>TRUNC('Práctica 1'!L14,2)</f>
@@ -2316,20 +2251,20 @@
       <c r="G15" s="20">
         <v>8</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <f t="shared" si="0"/>
         <v>5.0220000000000002</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>158</v>
+      <c r="I15" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>154</v>
+      <c r="A16" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C16" s="20">
         <f>TRUNC('Práctica 1'!L15,2)</f>
@@ -2350,20 +2285,20 @@
       <c r="G16" s="20">
         <v>3</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <f t="shared" si="0"/>
         <v>1.3580000000000001</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>160</v>
+      <c r="I16" s="33" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>155</v>
+      <c r="A17" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C17" s="20">
         <f>TRUNC('Práctica 1'!L16,2)</f>
@@ -2384,20 +2319,20 @@
       <c r="G17" s="20">
         <v>5</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <f t="shared" si="0"/>
         <v>5.3710000000000004</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>159</v>
+      <c r="I17" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>156</v>
+      <c r="A18" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C18" s="20">
         <f>TRUNC('Práctica 1'!L17,2)</f>
@@ -2418,20 +2353,20 @@
       <c r="G18" s="20">
         <v>5</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="24">
         <f t="shared" si="0"/>
         <v>3.6989999999999998</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>159</v>
+      <c r="I18" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>152</v>
+      <c r="A19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="20">
         <f>TRUNC('Práctica 1'!L18,2)</f>
@@ -2452,20 +2387,20 @@
       <c r="G19" s="20">
         <v>10</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <f t="shared" si="0"/>
         <v>7.4989999999999997</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>158</v>
+      <c r="I19" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>153</v>
+      <c r="A20" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C20" s="20">
         <f>TRUNC('Práctica 1'!L19,2)</f>
@@ -2486,20 +2421,20 @@
       <c r="G20" s="20">
         <v>10</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <f t="shared" si="0"/>
         <v>7.104000000000001</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>158</v>
+      <c r="I20" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>154</v>
+      <c r="A21" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="20">
         <f>TRUNC('Práctica 1'!L20,2)</f>
@@ -2520,20 +2455,20 @@
       <c r="G21" s="20">
         <v>5</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="24">
         <f t="shared" si="0"/>
         <v>5.5279999999999996</v>
       </c>
-      <c r="I21" s="34" t="s">
-        <v>159</v>
+      <c r="I21" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>155</v>
+      <c r="A22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C22" s="20">
         <f>TRUNC('Práctica 1'!L21,2)</f>
@@ -2554,20 +2489,20 @@
       <c r="G22" s="20">
         <v>10</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <f t="shared" si="0"/>
         <v>7.8320000000000007</v>
       </c>
-      <c r="I22" s="34" t="s">
-        <v>158</v>
+      <c r="I22" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>156</v>
+      <c r="A23" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C23" s="20">
         <f>TRUNC('Práctica 1'!L22,2)</f>
@@ -2588,20 +2523,20 @@
       <c r="G23" s="20">
         <v>10</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <f t="shared" si="0"/>
         <v>7.8259999999999987</v>
       </c>
-      <c r="I23" s="34" t="s">
-        <v>158</v>
+      <c r="I23" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C24" s="20">
         <f>TRUNC('Práctica 1'!L23,2)</f>
@@ -2621,20 +2556,20 @@
       <c r="G24" s="20">
         <v>10</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <f t="shared" si="0"/>
         <v>6.4279999999999999</v>
       </c>
-      <c r="I24" s="34" t="s">
-        <v>158</v>
+      <c r="I24" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>153</v>
+      <c r="A25" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C25" s="20">
         <f>TRUNC('Práctica 1'!L24,2)</f>
@@ -2655,20 +2590,20 @@
       <c r="G25" s="20">
         <v>10</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <f t="shared" si="0"/>
         <v>4.83</v>
       </c>
-      <c r="I25" s="34" t="s">
-        <v>158</v>
+      <c r="I25" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>154</v>
+      <c r="A26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C26" s="20">
         <f>TRUNC('Práctica 1'!L25,2)</f>
@@ -2689,20 +2624,20 @@
       <c r="G26" s="20">
         <v>7</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="24">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="I26" s="34" t="s">
-        <v>159</v>
+      <c r="I26" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>155</v>
+      <c r="A27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C27" s="20">
         <f>TRUNC('Práctica 1'!L26,2)</f>
@@ -2723,20 +2658,20 @@
       <c r="G27" s="20">
         <v>10</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <f t="shared" si="0"/>
         <v>9.4350000000000005</v>
       </c>
-      <c r="I27" s="34" t="s">
-        <v>158</v>
+      <c r="I27" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>156</v>
+      <c r="A28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C28" s="20">
         <f>TRUNC('Práctica 1'!L27,2)</f>
@@ -2757,20 +2692,20 @@
       <c r="G28" s="20">
         <v>10</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="24">
         <f t="shared" si="0"/>
         <v>9.2449999999999992</v>
       </c>
-      <c r="I28" s="34" t="s">
-        <v>158</v>
+      <c r="I28" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>152</v>
+      <c r="A29" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C29" s="20">
         <f>TRUNC('Práctica 1'!L28,2)</f>
@@ -2791,20 +2726,20 @@
       <c r="G29" s="20">
         <v>10</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="24">
         <f t="shared" si="0"/>
         <v>5.5460000000000003</v>
       </c>
-      <c r="I29" s="34" t="s">
-        <v>158</v>
+      <c r="I29" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>153</v>
+      <c r="A30" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C30" s="20">
         <f>TRUNC('Práctica 1'!L29,2)</f>
@@ -2824,20 +2759,20 @@
       <c r="G30" s="20">
         <v>10</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="24">
         <f t="shared" si="0"/>
         <v>6.835</v>
       </c>
-      <c r="I30" s="34" t="s">
-        <v>158</v>
+      <c r="I30" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>154</v>
+      <c r="A31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C31" s="20">
         <f>TRUNC('Práctica 1'!L30,2)</f>
@@ -2858,20 +2793,20 @@
       <c r="G31" s="20">
         <v>9</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="24">
         <f t="shared" si="0"/>
         <v>8.8049999999999997</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>158</v>
+      <c r="I31" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>155</v>
+      <c r="A32" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C32" s="20">
         <f>TRUNC('Práctica 1'!L31,2)</f>
@@ -2892,20 +2827,20 @@
       <c r="G32" s="20">
         <v>5</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="24">
         <f t="shared" si="0"/>
         <v>5.9289999999999994</v>
       </c>
-      <c r="I32" s="34" t="s">
-        <v>159</v>
+      <c r="I32" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>156</v>
+      <c r="A33" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C33" s="20">
         <f>TRUNC('Práctica 1'!L32,2)</f>
@@ -2926,17 +2861,17 @@
       <c r="G33" s="20">
         <v>5</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I33" s="34" t="s">
-        <v>159</v>
+      <c r="I33" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2">
         <f>COUNTIF(C5:C33,"&lt;5")</f>
@@ -2962,12 +2897,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:H33">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H33">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2977,14 +2912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2997,38 +2932,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>166</v>
+      <c r="J1" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" s="9">
         <v>0.2</v>
       </c>
@@ -3053,8 +3000,12 @@
       <c r="J2" s="12">
         <v>0.5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="39"/>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3064,42 +3015,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>152</v>
+      <c r="A4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -3126,20 +3077,20 @@
         <v>0</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="17">
         <f>(C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+H4*H$2+I4*I$2)-J4*J$2</f>
         <v>6.1000000000000005</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>153</v>
+      <c r="A5" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -3166,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="17">
         <f t="shared" ref="L5:L33" si="0">(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2+I5*I$2)-J5*J$2</f>
@@ -3174,11 +3125,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>154</v>
+      <c r="A6" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -3205,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="17">
         <f t="shared" si="0"/>
@@ -3213,50 +3164,50 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>156</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -3283,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="17">
         <f t="shared" si="0"/>
@@ -3291,11 +3242,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C9" s="3">
         <v>10</v>
@@ -3322,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="0"/>
@@ -3330,11 +3281,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>153</v>
+      <c r="A10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
@@ -3361,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" s="17">
         <f t="shared" si="0"/>
@@ -3369,11 +3320,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>154</v>
+      <c r="A11" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -3400,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="17">
         <f t="shared" si="0"/>
@@ -3408,11 +3359,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>155</v>
+      <c r="A12" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
@@ -3439,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="17">
         <f t="shared" si="0"/>
@@ -3447,11 +3398,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>156</v>
+      <c r="A13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
@@ -3478,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="0"/>
@@ -3486,11 +3437,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>152</v>
+      <c r="A14" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="3">
         <v>10</v>
@@ -3517,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="17">
         <f t="shared" si="0"/>
@@ -3525,11 +3476,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>153</v>
+      <c r="A15" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="3">
         <v>9</v>
@@ -3556,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="0"/>
@@ -3564,11 +3515,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>154</v>
+      <c r="A16" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C16" s="3">
         <v>9</v>
@@ -3595,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" s="17">
         <f t="shared" si="0"/>
@@ -3603,11 +3554,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>155</v>
+      <c r="A17" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
@@ -3634,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="17">
         <f t="shared" si="0"/>
@@ -3642,11 +3593,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>156</v>
+      <c r="A18" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C18" s="3">
         <v>10</v>
@@ -3673,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L18" s="17">
         <f t="shared" si="0"/>
@@ -3681,11 +3632,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>152</v>
+      <c r="A19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
@@ -3712,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="0"/>
@@ -3720,11 +3671,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>153</v>
+      <c r="A20" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
@@ -3751,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="0"/>
@@ -3759,11 +3710,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>154</v>
+      <c r="A21" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
@@ -3790,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="0"/>
@@ -3798,11 +3749,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>155</v>
+      <c r="A22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
@@ -3829,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="17">
         <f t="shared" si="0"/>
@@ -3837,50 +3788,50 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C24" s="3">
         <v>10</v>
@@ -3907,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L24" s="17">
         <f t="shared" si="0"/>
@@ -3915,11 +3866,11 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>153</v>
+      <c r="A25" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C25" s="3">
         <v>9</v>
@@ -3946,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="17">
         <f t="shared" si="0"/>
@@ -3954,11 +3905,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>154</v>
+      <c r="A26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
@@ -3985,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="17">
         <f t="shared" si="0"/>
@@ -3993,11 +3944,11 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>155</v>
+      <c r="A27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
@@ -4024,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L27" s="17">
         <f t="shared" si="0"/>
@@ -4032,11 +3983,11 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>156</v>
+      <c r="A28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
@@ -4063,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="17">
         <f t="shared" si="0"/>
@@ -4071,11 +4022,11 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>152</v>
+      <c r="A29" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
@@ -4102,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29" s="17">
         <f t="shared" si="0"/>
@@ -4110,11 +4061,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>153</v>
+      <c r="A30" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C30" s="3">
         <v>10</v>
@@ -4141,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="17">
         <f t="shared" si="0"/>
@@ -4149,11 +4100,11 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>154</v>
+      <c r="A31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
@@ -4180,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="17">
         <f t="shared" si="0"/>
@@ -4188,51 +4139,51 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>156</v>
-      </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
@@ -4258,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" s="17">
         <f t="shared" si="0"/>
@@ -4267,7 +4218,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L4:L1048576 L2">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4280,7 +4231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J33">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4302,14 +4253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4322,50 +4273,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>3</v>
+      <c r="O1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" s="9">
         <v>0.2</v>
       </c>
@@ -4402,8 +4365,12 @@
       <c r="N2" s="12">
         <v>0.25</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="45"/>
+      <c r="O2" s="43">
+        <v>0</v>
+      </c>
+      <c r="P2" s="42">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4413,54 +4380,54 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="M3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="45" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>153</v>
+      <c r="A4" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -4499,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" s="17">
         <f>((C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+H4*H$2+K4*K$2+I4*I$2+J4*J$2+L4*L$2+M4*M$2)-N4*N$2)*10/3</f>
@@ -4507,11 +4474,11 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>154</v>
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -4550,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="17">
         <f t="shared" ref="P5:P33" si="0">((C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2+K5*K$2+I5*I$2+J5*J$2+L5*L$2+M5*M$2)-N5*N$2)*10/3</f>
@@ -4558,11 +4525,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>155</v>
+      <c r="A6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -4601,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" si="0"/>
@@ -4609,62 +4576,62 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="17">
-        <f t="shared" si="0"/>
-        <v>9.4999999999999982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C8" s="3">
         <v>2.5</v>
@@ -4703,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="0"/>
@@ -4711,11 +4678,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>153</v>
+      <c r="A9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -4754,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="0"/>
@@ -4762,11 +4729,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>154</v>
+      <c r="A10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -4805,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="0"/>
@@ -4813,11 +4780,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>155</v>
+      <c r="A11" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="3">
         <v>2.5</v>
@@ -4856,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P11" s="17">
         <f t="shared" si="0"/>
@@ -4864,11 +4831,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>156</v>
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -4907,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="0"/>
@@ -4915,113 +4882,113 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="36" t="s">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>154</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -5060,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="0"/>
@@ -5068,62 +5035,62 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>156</v>
       </c>
       <c r="C17" s="3">
         <v>2.75</v>
@@ -5162,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="0"/>
@@ -5170,11 +5137,11 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>152</v>
+      <c r="A18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -5213,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="0"/>
@@ -5221,11 +5188,11 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>153</v>
+      <c r="A19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="3">
         <v>2.5</v>
@@ -5264,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="0"/>
@@ -5272,11 +5239,11 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>154</v>
+      <c r="A20" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C20" s="3">
         <v>2.5</v>
@@ -5315,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P20" s="17">
         <f t="shared" si="0"/>
@@ -5323,11 +5290,11 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>155</v>
+      <c r="A21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="3">
         <v>2.75</v>
@@ -5366,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" si="0"/>
@@ -5374,11 +5341,11 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>156</v>
+      <c r="A22" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -5417,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="0"/>
@@ -5425,11 +5392,11 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -5468,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="0"/>
@@ -5476,11 +5443,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>153</v>
+      <c r="A24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -5519,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="0"/>
@@ -5527,11 +5494,11 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>154</v>
+      <c r="A25" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -5570,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="0"/>
@@ -5578,11 +5545,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>155</v>
+      <c r="A26" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -5621,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P26" s="17">
         <f t="shared" si="0"/>
@@ -5629,11 +5596,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>156</v>
+      <c r="A27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -5672,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P27" s="17">
         <f t="shared" si="0"/>
@@ -5680,11 +5647,11 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>152</v>
+      <c r="A28" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -5723,121 +5690,121 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="0"/>
+        <v>9.0833333333333321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="17">
-        <f t="shared" si="0"/>
-        <v>9.0833333333333321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="36" t="s">
+      <c r="P29" s="17">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="13">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" s="17">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="17">
-        <f t="shared" si="0"/>
-        <v>9.4999999999999982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>155</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -5876,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" s="17">
         <f t="shared" si="0"/>
@@ -5884,11 +5851,11 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>156</v>
+      <c r="A32" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -5927,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P32" s="17">
         <f t="shared" si="0"/>
@@ -5936,11 +5903,11 @@
     </row>
     <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
@@ -5978,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" s="17">
         <f t="shared" si="0"/>
@@ -5987,7 +5954,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P4:P1048576">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6000,7 +5967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N25 N27:N33">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6017,7 +5984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6034,23 +6001,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="&quot;&lt;5&quot;"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="&quot;&lt;5&quot;"/>
         <cfvo type="max"/>
@@ -6065,14 +6019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6085,32 +6039,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>3</v>
+      <c r="I1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" s="9">
         <v>0.2</v>
       </c>
@@ -6129,8 +6095,12 @@
       <c r="H2" s="9">
         <v>0.1</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="43"/>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -6140,36 +6110,36 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>153</v>
+      <c r="A4" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -6190,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J4" s="17">
         <f>(C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+H4*H$2)*10/3</f>
@@ -6198,11 +6168,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>154</v>
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -6223,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" ref="J5:J32" si="0">(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2)*10/3</f>
@@ -6231,11 +6201,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>155</v>
+      <c r="A6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -6256,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" si="0"/>
@@ -6264,77 +6234,77 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>153</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -6355,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
@@ -6363,11 +6333,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>154</v>
+      <c r="A10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -6388,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="0"/>
@@ -6396,11 +6366,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>155</v>
+      <c r="A11" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -6421,7 +6391,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="0"/>
@@ -6429,11 +6399,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>156</v>
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -6454,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" si="0"/>
@@ -6462,11 +6432,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>152</v>
+      <c r="A13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -6487,7 +6457,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" si="0"/>
@@ -6495,11 +6465,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>153</v>
+      <c r="A14" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -6520,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" si="0"/>
@@ -6528,11 +6498,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>154</v>
+      <c r="A15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -6553,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="0"/>
@@ -6561,77 +6531,77 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -6652,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" si="0"/>
@@ -6660,11 +6630,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>153</v>
+      <c r="A19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -6685,7 +6655,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" si="0"/>
@@ -6693,11 +6663,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>154</v>
+      <c r="A20" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -6718,7 +6688,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" si="0"/>
@@ -6726,11 +6696,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>155</v>
+      <c r="A21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -6751,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="0"/>
@@ -6759,176 +6729,176 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="17">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="36" t="s">
+    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="36" t="s">
+      <c r="J26" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>156</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -6949,7 +6919,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="0"/>
@@ -6957,11 +6927,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>152</v>
+      <c r="A28" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -6982,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="17">
         <f t="shared" si="0"/>
@@ -6990,110 +6960,110 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J31" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="17">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>156</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -7114,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J32" s="17">
         <f t="shared" si="0"/>
@@ -7123,7 +7093,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="13">
@@ -7172,23 +7142,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="&quot;&lt;5&quot;"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="&quot;&lt;5&quot;"/>
         <cfvo type="max"/>
@@ -7203,17 +7160,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7226,58 +7183,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>3</v>
+      <c r="P1" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" s="9">
         <v>0.1</v>
@@ -7312,75 +7275,79 @@
       <c r="M2" s="9">
         <v>0.1</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>0.1</v>
       </c>
       <c r="O2" s="12">
         <v>0.1</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="43"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="P2" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -7414,14 +7381,14 @@
       <c r="M4" s="3">
         <v>3</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="27">
         <v>1</v>
       </c>
       <c r="O4" s="13">
         <v>0</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="17">
         <f>((M4*M$2+C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+J4*J$2+H4*H$2+I4*I$2+K4*K$2+L4*L$2))*10/3+N4*N$2-O4*O$2</f>
@@ -7429,11 +7396,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>154</v>
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -7466,12 +7433,12 @@
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="28"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="13">
         <v>0</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="17">
         <f>((M5*M$2+C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+J5*J$2+H5*H$2+I5*I$2+K5*K$2+L5*L$2))*10/3+N5*N$2-O5*O$2</f>
@@ -7479,11 +7446,11 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>155</v>
+      <c r="A6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -7516,12 +7483,12 @@
         <v>1</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="28"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="13">
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="17">
         <f t="shared" ref="Q6:Q32" si="0">((M6*M$2+C6*C$2+D6*D$2+E6*E$2+F6*F$2+G6*G$2+J6*J$2+H6*H$2+I6*I$2+K6*K$2+L6*L$2))*10/3+N6*N$2-O6*O$2</f>
@@ -7529,11 +7496,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>156</v>
+      <c r="A7" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -7566,12 +7533,12 @@
         <v>1</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="28"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="13">
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="17">
         <f t="shared" si="0"/>
@@ -7579,61 +7546,61 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="17">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>153</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -7666,12 +7633,12 @@
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="13">
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="17">
         <f t="shared" si="0"/>
@@ -7679,11 +7646,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>154</v>
+      <c r="A10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -7716,12 +7683,12 @@
         <v>1</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="13">
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="0"/>
@@ -7729,11 +7696,11 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>155</v>
+      <c r="A11" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -7766,12 +7733,12 @@
         <v>1</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="28"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="13">
         <v>0</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="0"/>
@@ -7779,113 +7746,113 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    </row>
+    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q13" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>153</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -7918,12 +7885,12 @@
         <v>1</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="28"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="13">
         <v>0</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="0"/>
@@ -7931,63 +7898,63 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>155</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -8020,14 +7987,14 @@
         <v>1</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <v>3</v>
       </c>
       <c r="O16" s="13">
         <v>0</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="0"/>
@@ -8035,11 +8002,11 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>156</v>
+      <c r="A17" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -8072,12 +8039,12 @@
         <v>1</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="28"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="13">
         <v>0</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="0"/>
@@ -8085,11 +8052,11 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>152</v>
+      <c r="A18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -8122,12 +8089,12 @@
         <v>1</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="28"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="13">
         <v>0</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="0"/>
@@ -8135,11 +8102,11 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>153</v>
+      <c r="A19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -8174,12 +8141,12 @@
       <c r="M19" s="3">
         <v>3</v>
       </c>
-      <c r="N19" s="28"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="13">
         <v>0</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="0"/>
@@ -8187,11 +8154,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>154</v>
+      <c r="A20" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -8224,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="13">
         <v>0</v>
       </c>
@@ -8235,11 +8202,11 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>155</v>
+      <c r="A21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -8272,12 +8239,12 @@
         <v>1</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="28"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="13">
         <v>0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="17">
         <f t="shared" si="0"/>
@@ -8285,11 +8252,11 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>156</v>
+      <c r="A22" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -8322,12 +8289,12 @@
         <v>2</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="13">
         <v>0</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="17">
         <f t="shared" si="0"/>
@@ -8335,63 +8302,63 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="0"/>
+        <v>10.999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="13">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="17">
-        <f t="shared" si="0"/>
-        <v>10.999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>153</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -8424,10 +8391,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="32"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="0"/>
@@ -8435,11 +8402,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>154</v>
+      <c r="A25" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -8472,14 +8439,14 @@
         <v>2</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="28">
+      <c r="N25" s="27">
         <v>1</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="0"/>
@@ -8487,11 +8454,11 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>155</v>
+      <c r="A26" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -8524,12 +8491,12 @@
         <v>3</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="13">
         <v>0</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="17">
         <f t="shared" si="0"/>
@@ -8537,11 +8504,11 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>156</v>
+      <c r="A27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -8574,14 +8541,14 @@
         <v>1</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="28">
+      <c r="N27" s="27">
         <v>1</v>
       </c>
       <c r="O27" s="13">
         <v>0</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q27" s="17">
         <f t="shared" si="0"/>
@@ -8589,11 +8556,11 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>152</v>
+      <c r="A28" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -8626,14 +8593,14 @@
         <v>1</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="28">
+      <c r="N28" s="27">
         <v>3</v>
       </c>
       <c r="O28" s="13">
         <v>0</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="17">
         <f t="shared" si="0"/>
@@ -8641,11 +8608,11 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>153</v>
+      <c r="A29" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -8680,12 +8647,12 @@
       <c r="M29" s="3">
         <v>3</v>
       </c>
-      <c r="N29" s="28"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="13">
         <v>0</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="17">
         <f t="shared" si="0"/>
@@ -8693,11 +8660,11 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>154</v>
+      <c r="A30" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -8730,12 +8697,12 @@
         <v>1</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="13">
         <v>0</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="0"/>
@@ -8743,11 +8710,11 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>155</v>
+      <c r="A31" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -8782,14 +8749,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="27">
         <v>3</v>
       </c>
       <c r="O31" s="13">
         <v>0</v>
       </c>
-      <c r="P31" s="30" t="s">
-        <v>136</v>
+      <c r="P31" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="Q31" s="17">
         <f t="shared" si="0"/>
@@ -8797,11 +8764,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>156</v>
+      <c r="A32" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -8833,13 +8800,13 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
       <c r="O32" s="13">
         <v>0</v>
       </c>
-      <c r="P32" s="31" t="s">
-        <v>147</v>
+      <c r="P32" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="0"/>
@@ -8848,7 +8815,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q3:Q1048576">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThan">
       <formula>5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8861,7 +8828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O21 O23:O32">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8890,7 +8857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8906,19 +8873,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="&quot;&lt;5&quot;"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="184">
   <si>
     <t>Apellidos</t>
   </si>
@@ -567,12 +567,16 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>papapappa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1762,11 +1766,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="33" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="6" max="8" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="33" width="25.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>166</v>
@@ -1805,26 +1809,26 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="38">
-        <v>10</v>
-      </c>
-      <c r="D2" s="38">
-        <v>20</v>
-      </c>
-      <c r="E2" s="38">
-        <v>30</v>
-      </c>
-      <c r="F2" s="38">
-        <v>30</v>
-      </c>
-      <c r="G2" s="38">
-        <v>10</v>
+      <c r="C2" s="38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D2" s="38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F2" s="38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G2" s="38" t="n">
+        <v>10.0</v>
       </c>
       <c r="H2" s="38">
         <v>100</v>
       </c>
-      <c r="I2" s="33">
-        <v>0</v>
+      <c r="I2" s="33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2924,11 +2928,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="10" width="4.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="3" max="10" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="8" width="55.42578125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4265,11 +4269,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="14" width="4.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="3" max="14" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="8" width="38.140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="6.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6031,11 +6035,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="3" max="8" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="8" width="48.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7175,11 +7179,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="15" width="4.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="45.42578125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="3" max="15" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="8" width="45.42578125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="6.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="186">
   <si>
     <t>Apellidos</t>
   </si>
@@ -569,7 +569,13 @@
     <t>AC</t>
   </si>
   <si>
-    <t>papapappa</t>
+    <t>dfgh</t>
+  </si>
+  <si>
+    <t>P2222</t>
+  </si>
+  <si>
+    <t>Pr234</t>
   </si>
 </sst>
 </file>
@@ -1766,11 +1772,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="6" max="8" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="33" width="25.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="33" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1784,7 +1790,7 @@
         <v>183</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>167</v>
@@ -1810,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="38" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="D2" s="38" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="38" t="n">
         <v>30.0</v>
@@ -1839,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>126</v>
@@ -2928,11 +2934,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="3" max="10" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="8" width="55.42578125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="55.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4269,11 +4275,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="3" max="14" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="8" width="38.140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="14" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="38.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6035,11 +6041,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="3" max="8" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="8" width="48.7109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="8" width="48.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7179,11 +7185,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="3" max="15" customWidth="true" style="11" width="4.85546875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="8" width="45.42578125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="8" width="45.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="188">
   <si>
     <t>Apellidos</t>
   </si>
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>Pr234</t>
+  </si>
+  <si>
+    <t>dfghh</t>
+  </si>
+  <si>
+    <t>dfghhs</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>185</v>

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="184">
   <si>
     <t>Apellidos</t>
   </si>
@@ -569,19 +569,7 @@
     <t>AC</t>
   </si>
   <si>
-    <t>dfgh</t>
-  </si>
-  <si>
-    <t>P2222</t>
-  </si>
-  <si>
-    <t>Pr234</t>
-  </si>
-  <si>
-    <t>dfghh</t>
-  </si>
-  <si>
-    <t>dfghhs</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1767,7 +1755,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1778,11 +1766,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="33" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="33" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,25 +1784,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="C1" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="34" t="s">
+      <c r="D1" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="E1" t="s" s="0">
         <v>148</v>
       </c>
     </row>
@@ -1821,25 +1801,13 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" t="n" s="0">
         <v>30.0</v>
       </c>
-      <c r="D2" s="38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="38" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F2" s="38" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G2" s="38" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H2" s="38">
-        <v>100</v>
-      </c>
-      <c r="I2" s="33" t="n">
+      <c r="D2" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1850,25 +1818,13 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="C3" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="D3" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="E3" t="s" s="0">
         <v>148</v>
       </c>
     </row>
@@ -1879,27 +1835,13 @@
       <c r="B4" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="20">
-        <f>TRUNC('Práctica 1'!L4,2)</f>
-        <v>6.1</v>
-      </c>
-      <c r="D4" s="20">
-        <f>TRUNC('Práctica 2'!P4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>156</v>
       </c>
     </row>
@@ -1910,28 +1852,13 @@
       <c r="B5" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
-        <f>TRUNC('Práctica 2'!P5,2)</f>
-        <v>9.08</v>
-      </c>
-      <c r="E5" s="20">
-        <f>TRUNC('Práctica 3'!J4,2)</f>
-        <v>7.33</v>
-      </c>
-      <c r="F5" s="20">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20">
-        <v>10</v>
-      </c>
-      <c r="H5" s="24">
-        <f t="shared" ref="H5:H33" si="0">(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2)/100</f>
-        <v>8.0150000000000006</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="C5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D5" s="0">
+        <f>(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2)/100</f>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -1942,30 +1869,13 @@
       <c r="B6" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="20">
-        <f>TRUNC('Práctica 1'!L5,2)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D6" s="20">
-        <f>TRUNC('Práctica 2'!P6,2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="E6" s="20">
-        <f>TRUNC('Práctica 3'!J5,2)</f>
-        <v>5.66</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="C6" s="0">
         <f>TRUNC('Examen 1'!Q5,2)</f>
-        <v>6.66</v>
-      </c>
-      <c r="G6" s="20">
-        <v>10</v>
-      </c>
-      <c r="H6" s="24">
-        <f t="shared" si="0"/>
-        <v>6.1260000000000003</v>
-      </c>
-      <c r="I6" s="33" t="s">
+      </c>
+      <c r="D6" s="0">
+        <f>(C6*C$2+D6*D$2+E6*E$2+F6*F$2+G6*G$2)/100</f>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -1976,30 +1886,13 @@
       <c r="B7" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="20">
-        <f>TRUNC('Práctica 1'!L6,2)</f>
-        <v>8</v>
-      </c>
-      <c r="D7" s="20">
-        <f>TRUNC('Práctica 2'!P7,2)</f>
-        <v>9.5</v>
-      </c>
-      <c r="E7" s="20">
-        <f>TRUNC('Práctica 3'!J6,2)</f>
-        <v>6.33</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="C7" s="0">
         <f>TRUNC('Examen 1'!Q6,2)</f>
-        <v>8</v>
-      </c>
-      <c r="G7" s="20">
-        <v>10</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" si="0"/>
-        <v>7.9989999999999997</v>
-      </c>
-      <c r="I7" s="33" t="s">
+      </c>
+      <c r="D7" s="0">
+        <f>(C7*C$2+D7*D$2+E7*E$2+F7*F$2+G7*G$2)/100</f>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2010,30 +1903,13 @@
       <c r="B8" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="20">
-        <f>TRUNC('Práctica 1'!L7,2)</f>
-        <v>9.5</v>
-      </c>
-      <c r="D8" s="20">
-        <f>TRUNC('Práctica 2'!P8,2)</f>
-        <v>9.5</v>
-      </c>
-      <c r="E8" s="20">
-        <f>TRUNC('Práctica 3'!J7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="C8" s="0">
         <f>TRUNC('Examen 1'!Q7,2)</f>
-        <v>6.66</v>
-      </c>
-      <c r="G8" s="20">
-        <v>10</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>5.8479999999999999</v>
-      </c>
-      <c r="I8" s="33" t="s">
+      </c>
+      <c r="D8" s="0">
+        <f>(C8*C$2+D8*D$2+E8*E$2+F8*F$2+G8*G$2)/100</f>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2044,30 +1920,13 @@
       <c r="B9" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="20">
-        <f>TRUNC('Práctica 1'!L8,2)</f>
-        <v>7.55</v>
-      </c>
-      <c r="D9" s="20">
-        <f>TRUNC('Práctica 2'!P9,2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="E9" s="20">
-        <f>TRUNC('Práctica 3'!J8,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="C9" s="0">
         <f>TRUNC('Examen 1'!Q8,2)</f>
-        <v>5.5</v>
-      </c>
-      <c r="G9" s="20">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>3.6549999999999998</v>
-      </c>
-      <c r="I9" s="33" t="s">
+      </c>
+      <c r="D9" s="0">
+        <f>(C9*C$2+D9*D$2+E9*E$2+F9*F$2+G9*G$2)/100</f>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2078,30 +1937,13 @@
       <c r="B10" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="20">
-        <f>TRUNC('Práctica 1'!L9,2)</f>
-        <v>7.35</v>
-      </c>
-      <c r="D10" s="20">
-        <f>TRUNC('Práctica 2'!P10,2)</f>
-        <v>7.33</v>
-      </c>
-      <c r="E10" s="20">
-        <f>TRUNC('Práctica 3'!J9,2)</f>
-        <v>6.66</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="C10" s="0">
         <f>TRUNC('Examen 1'!Q9,2)</f>
-        <v>9.16</v>
-      </c>
-      <c r="G10" s="20">
-        <v>10</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>7.9470000000000001</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      </c>
+      <c r="D10" s="0">
+        <f>(C10*C$2+D10*D$2+E10*E$2+F10*F$2+G10*G$2)/100</f>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2112,30 +1954,13 @@
       <c r="B11" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="20">
-        <f>TRUNC('Práctica 1'!L10,2)</f>
-        <v>9.1</v>
-      </c>
-      <c r="D11" s="20">
-        <f>TRUNC('Práctica 2'!P11,2)</f>
-        <v>8</v>
-      </c>
-      <c r="E11" s="20">
-        <f>TRUNC('Práctica 3'!J10,2)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="C11" s="0">
         <f>TRUNC('Examen 1'!Q10,2)</f>
-        <v>8</v>
-      </c>
-      <c r="G11" s="20">
-        <v>10</v>
-      </c>
-      <c r="H11" s="24">
-        <f t="shared" si="0"/>
-        <v>7.41</v>
-      </c>
-      <c r="I11" s="33" t="s">
+      </c>
+      <c r="D11" s="0">
+        <f>(C11*C$2+D11*D$2+E11*E$2+F11*F$2+G11*G$2)/100</f>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2146,30 +1971,13 @@
       <c r="B12" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="20">
-        <f>TRUNC('Práctica 1'!L11,2)</f>
-        <v>6.65</v>
-      </c>
-      <c r="D12" s="20">
-        <f>TRUNC('Práctica 2'!P12,2)</f>
-        <v>2.08</v>
-      </c>
-      <c r="E12" s="20">
-        <f>TRUNC('Práctica 3'!J11,2)</f>
-        <v>6.33</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="C12" s="0">
         <f>TRUNC('Examen 1'!Q11,2)</f>
-        <v>6.33</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" si="0"/>
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      </c>
+      <c r="D12" s="0">
+        <f>(C12*C$2+D12*D$2+E12*E$2+F12*F$2+G12*G$2)/100</f>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>159</v>
       </c>
     </row>
@@ -2180,30 +1988,13 @@
       <c r="B13" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="20">
-        <f>TRUNC('Práctica 1'!L12,2)</f>
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="20">
-        <f>TRUNC('Práctica 2'!P13,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <f>TRUNC('Práctica 3'!J12,2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="C13" s="0">
         <f>TRUNC('Examen 1'!Q12,2)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>2</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      </c>
+      <c r="D13" s="0">
+        <f>(C13*C$2+D13*D$2+E13*E$2+F13*F$2+G13*G$2)/100</f>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>159</v>
       </c>
     </row>
@@ -2214,30 +2005,13 @@
       <c r="B14" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="20">
-        <f>TRUNC('Práctica 1'!L13,2)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D14" s="20">
-        <f>TRUNC('Práctica 2'!P14,2)</f>
-        <v>6.5</v>
-      </c>
-      <c r="E14" s="20">
-        <f>TRUNC('Práctica 3'!J13,2)</f>
-        <v>9.66</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="C14" s="0">
         <f>TRUNC('Examen 1'!Q13,2)</f>
-        <v>9</v>
-      </c>
-      <c r="G14" s="20">
-        <v>10</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" si="0"/>
-        <v>8.3579999999999988</v>
-      </c>
-      <c r="I14" s="33" t="s">
+      </c>
+      <c r="D14" s="0">
+        <f>(C14*C$2+D14*D$2+E14*E$2+F14*F$2+G14*G$2)/100</f>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2248,30 +2022,13 @@
       <c r="B15" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="20">
-        <f>TRUNC('Práctica 1'!L14,2)</f>
-        <v>6.6</v>
-      </c>
-      <c r="D15" s="20">
-        <f>TRUNC('Práctica 2'!P15,2)</f>
-        <v>3.08</v>
-      </c>
-      <c r="E15" s="20">
-        <f>TRUNC('Práctica 3'!J14,2)</f>
-        <v>3.66</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="C15" s="0">
         <f>TRUNC('Examen 1'!Q14,2)</f>
-        <v>6.16</v>
-      </c>
-      <c r="G15" s="20">
-        <v>8</v>
-      </c>
-      <c r="H15" s="24">
-        <f t="shared" si="0"/>
-        <v>5.0220000000000002</v>
-      </c>
-      <c r="I15" s="33" t="s">
+      </c>
+      <c r="D15" s="0">
+        <f>(C15*C$2+D15*D$2+E15*E$2+F15*F$2+G15*G$2)/100</f>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2282,30 +2039,13 @@
       <c r="B16" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="20">
-        <f>TRUNC('Práctica 1'!L15,2)</f>
-        <v>5.6</v>
-      </c>
-      <c r="D16" s="20">
-        <f>TRUNC('Práctica 2'!P16,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <f>TRUNC('Práctica 3'!J15,2)</f>
-        <v>1.66</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="C16" s="0">
         <f>TRUNC('Examen 1'!Q15,2)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <v>3</v>
-      </c>
-      <c r="H16" s="24">
-        <f t="shared" si="0"/>
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="I16" s="33" t="s">
+      </c>
+      <c r="D16" s="0">
+        <f>(C16*C$2+D16*D$2+E16*E$2+F16*F$2+G16*G$2)/100</f>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>159</v>
       </c>
     </row>
@@ -2316,30 +2056,13 @@
       <c r="B17" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="20">
-        <f>TRUNC('Práctica 1'!L16,2)</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="20">
-        <f>TRUNC('Práctica 2'!P17,2)</f>
-        <v>8.91</v>
-      </c>
-      <c r="E17" s="20">
-        <f>TRUNC('Práctica 3'!J16,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="C17" s="0">
         <f>TRUNC('Examen 1'!Q16,2)</f>
-        <v>6.63</v>
-      </c>
-      <c r="G17" s="20">
-        <v>5</v>
-      </c>
-      <c r="H17" s="24">
-        <f t="shared" si="0"/>
-        <v>5.3710000000000004</v>
-      </c>
-      <c r="I17" s="33" t="s">
+      </c>
+      <c r="D17" s="0">
+        <f>(C17*C$2+D17*D$2+E17*E$2+F17*F$2+G17*G$2)/100</f>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2350,30 +2073,13 @@
       <c r="B18" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="20">
-        <f>TRUNC('Práctica 1'!L17,2)</f>
-        <v>7.1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>TRUNC('Práctica 2'!P18,2)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E18" s="20">
-        <f>TRUNC('Práctica 3'!J17,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="20">
+      <c r="C18" s="0">
         <f>TRUNC('Examen 1'!Q17,2)</f>
-        <v>5.83</v>
-      </c>
-      <c r="G18" s="20">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24">
-        <f t="shared" si="0"/>
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="I18" s="33" t="s">
+      </c>
+      <c r="D18" s="0">
+        <f>(C18*C$2+D18*D$2+E18*E$2+F18*F$2+G18*G$2)/100</f>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2384,30 +2090,13 @@
       <c r="B19" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="20">
-        <f>TRUNC('Práctica 1'!L18,2)</f>
-        <v>7.5</v>
-      </c>
-      <c r="D19" s="20">
-        <f>TRUNC('Práctica 2'!P19,2)</f>
-        <v>8</v>
-      </c>
-      <c r="E19" s="20">
-        <f>TRUNC('Práctica 3'!J18,2)</f>
-        <v>6</v>
-      </c>
-      <c r="F19" s="20">
+      <c r="C19" s="0">
         <f>TRUNC('Examen 1'!Q18,2)</f>
-        <v>7.83</v>
-      </c>
-      <c r="G19" s="20">
-        <v>10</v>
-      </c>
-      <c r="H19" s="24">
-        <f t="shared" si="0"/>
-        <v>7.4989999999999997</v>
-      </c>
-      <c r="I19" s="33" t="s">
+      </c>
+      <c r="D19" s="0">
+        <f>(C19*C$2+D19*D$2+E19*E$2+F19*F$2+G19*G$2)/100</f>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2418,30 +2107,13 @@
       <c r="B20" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="20">
-        <f>TRUNC('Práctica 1'!L19,2)</f>
-        <v>5.4</v>
-      </c>
-      <c r="D20" s="20">
-        <f>TRUNC('Práctica 2'!P20,2)</f>
-        <v>8.08</v>
-      </c>
-      <c r="E20" s="20">
-        <f>TRUNC('Práctica 3'!J19,2)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F20" s="20">
+      <c r="C20" s="0">
         <f>TRUNC('Examen 1'!Q19,2)</f>
-        <v>7.66</v>
-      </c>
-      <c r="G20" s="20">
-        <v>10</v>
-      </c>
-      <c r="H20" s="24">
-        <f t="shared" si="0"/>
-        <v>7.104000000000001</v>
-      </c>
-      <c r="I20" s="33" t="s">
+      </c>
+      <c r="D20" s="0">
+        <f>(C20*C$2+D20*D$2+E20*E$2+F20*F$2+G20*G$2)/100</f>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2452,30 +2124,13 @@
       <c r="B21" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="20">
-        <f>TRUNC('Práctica 1'!L20,2)</f>
-        <v>7.3</v>
-      </c>
-      <c r="D21" s="20">
-        <f>TRUNC('Práctica 2'!P21,2)</f>
-        <v>7</v>
-      </c>
-      <c r="E21" s="20">
-        <f>TRUNC('Práctica 3'!J20,2)</f>
-        <v>3.33</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="C21" s="0">
         <f>TRUNC('Examen 1'!Q20,2)</f>
-        <v>6.33</v>
-      </c>
-      <c r="G21" s="20">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24">
-        <f t="shared" si="0"/>
-        <v>5.5279999999999996</v>
-      </c>
-      <c r="I21" s="33" t="s">
+      </c>
+      <c r="D21" s="0">
+        <f>(C21*C$2+D21*D$2+E21*E$2+F21*F$2+G21*G$2)/100</f>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2486,30 +2141,13 @@
       <c r="B22" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="20">
-        <f>TRUNC('Práctica 1'!L21,2)</f>
-        <v>7.2</v>
-      </c>
-      <c r="D22" s="20">
-        <f>TRUNC('Práctica 2'!P22,2)</f>
-        <v>9.08</v>
-      </c>
-      <c r="E22" s="20">
-        <f>TRUNC('Práctica 3'!J21,2)</f>
-        <v>6.66</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="C22" s="0">
         <f>TRUNC('Examen 1'!Q21,2)</f>
-        <v>7.66</v>
-      </c>
-      <c r="G22" s="20">
-        <v>10</v>
-      </c>
-      <c r="H22" s="24">
-        <f t="shared" si="0"/>
-        <v>7.8320000000000007</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      </c>
+      <c r="D22" s="0">
+        <f>(C22*C$2+D22*D$2+E22*E$2+F22*F$2+G22*G$2)/100</f>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2520,30 +2158,13 @@
       <c r="B23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="20">
-        <f>TRUNC('Práctica 1'!L22,2)</f>
-        <v>7.95</v>
-      </c>
-      <c r="D23" s="20">
-        <f>TRUNC('Práctica 2'!P23,2)</f>
-        <v>6.41</v>
-      </c>
-      <c r="E23" s="20">
-        <f>TRUNC('Práctica 3'!J22,2)</f>
-        <v>6</v>
-      </c>
-      <c r="F23" s="20">
+      <c r="C23" s="0">
         <f>TRUNC('Examen 1'!Q22,2)</f>
-        <v>9.83</v>
-      </c>
-      <c r="G23" s="20">
-        <v>10</v>
-      </c>
-      <c r="H23" s="24">
-        <f t="shared" si="0"/>
-        <v>7.8259999999999987</v>
-      </c>
-      <c r="I23" s="33" t="s">
+      </c>
+      <c r="D23" s="0">
+        <f>(C23*C$2+D23*D$2+E23*E$2+F23*F$2+G23*G$2)/100</f>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2554,29 +2175,13 @@
       <c r="B24" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="20">
-        <f>TRUNC('Práctica 1'!L23,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="20">
-        <f>TRUNC('Práctica 2'!P24,2)</f>
-        <v>9.64</v>
-      </c>
-      <c r="E24" s="20">
-        <f>TRUNC('Práctica 3'!J23,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="20">
-        <v>10</v>
-      </c>
-      <c r="G24" s="20">
-        <v>10</v>
-      </c>
-      <c r="H24" s="24">
-        <f t="shared" si="0"/>
-        <v>6.4279999999999999</v>
-      </c>
-      <c r="I24" s="33" t="s">
+      <c r="C24" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D24" s="0">
+        <f>(C24*C$2+D24*D$2+E24*E$2+F24*F$2+G24*G$2)/100</f>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2587,30 +2192,13 @@
       <c r="B25" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="20">
-        <f>TRUNC('Práctica 1'!L24,2)</f>
-        <v>9</v>
-      </c>
-      <c r="D25" s="20">
-        <f>TRUNC('Práctica 2'!P25,2)</f>
-        <v>3.16</v>
-      </c>
-      <c r="E25" s="20">
-        <f>TRUNC('Práctica 3'!J24,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="20">
+      <c r="C25" s="0">
         <f>TRUNC('Examen 1'!Q24,2)</f>
-        <v>6.66</v>
-      </c>
-      <c r="G25" s="20">
-        <v>10</v>
-      </c>
-      <c r="H25" s="24">
-        <f t="shared" si="0"/>
-        <v>4.83</v>
-      </c>
-      <c r="I25" s="33" t="s">
+      </c>
+      <c r="D25" s="0">
+        <f>(C25*C$2+D25*D$2+E25*E$2+F25*F$2+G25*G$2)/100</f>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2621,30 +2209,13 @@
       <c r="B26" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="20">
-        <f>TRUNC('Práctica 1'!L25,2)</f>
-        <v>5.05</v>
-      </c>
-      <c r="D26" s="20">
-        <f>TRUNC('Práctica 2'!P26,2)</f>
-        <v>8.58</v>
-      </c>
-      <c r="E26" s="20">
-        <f>TRUNC('Práctica 3'!J25,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="C26" s="0">
         <f>TRUNC('Examen 1'!Q25,2)</f>
-        <v>6.93</v>
-      </c>
-      <c r="G26" s="20">
-        <v>7</v>
-      </c>
-      <c r="H26" s="24">
-        <f t="shared" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      </c>
+      <c r="D26" s="0">
+        <f>(C26*C$2+D26*D$2+E26*E$2+F26*F$2+G26*G$2)/100</f>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2655,30 +2226,13 @@
       <c r="B27" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="20">
-        <f>TRUNC('Práctica 1'!L26,2)</f>
-        <v>7.7</v>
-      </c>
-      <c r="D27" s="20">
-        <f>TRUNC('Práctica 2'!P27,2)</f>
-        <v>8.58</v>
-      </c>
-      <c r="E27" s="20">
-        <f>TRUNC('Práctica 3'!J26,2)</f>
-        <v>10</v>
-      </c>
-      <c r="F27" s="20">
+      <c r="C27" s="0">
         <f>TRUNC('Examen 1'!Q26,2)</f>
-        <v>9.83</v>
-      </c>
-      <c r="G27" s="20">
-        <v>10</v>
-      </c>
-      <c r="H27" s="24">
-        <f t="shared" si="0"/>
-        <v>9.4350000000000005</v>
-      </c>
-      <c r="I27" s="33" t="s">
+      </c>
+      <c r="D27" s="0">
+        <f>(C27*C$2+D27*D$2+E27*E$2+F27*F$2+G27*G$2)/100</f>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2689,30 +2243,13 @@
       <c r="B28" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="20">
-        <f>TRUNC('Práctica 1'!L27,2)</f>
-        <v>9</v>
-      </c>
-      <c r="D28" s="20">
-        <f>TRUNC('Práctica 2'!P28,2)</f>
-        <v>9.08</v>
-      </c>
-      <c r="E28" s="20">
-        <f>TRUNC('Práctica 3'!J27,2)</f>
-        <v>9</v>
-      </c>
-      <c r="F28" s="20">
+      <c r="C28" s="0">
         <f>TRUNC('Examen 1'!Q27,2)</f>
-        <v>9.43</v>
-      </c>
-      <c r="G28" s="20">
-        <v>10</v>
-      </c>
-      <c r="H28" s="24">
-        <f t="shared" si="0"/>
-        <v>9.2449999999999992</v>
-      </c>
-      <c r="I28" s="33" t="s">
+      </c>
+      <c r="D28" s="0">
+        <f>(C28*C$2+D28*D$2+E28*E$2+F28*F$2+G28*G$2)/100</f>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2723,30 +2260,13 @@
       <c r="B29" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="20">
-        <f>TRUNC('Práctica 1'!L28,2)</f>
-        <v>8.6</v>
-      </c>
-      <c r="D29" s="20">
-        <f>TRUNC('Práctica 2'!P29,2)</f>
-        <v>5.5</v>
-      </c>
-      <c r="E29" s="20">
-        <f>TRUNC('Práctica 3'!J28,2)</f>
-        <v>1.66</v>
-      </c>
-      <c r="F29" s="20">
+      <c r="C29" s="0">
         <f>TRUNC('Examen 1'!Q28,2)</f>
-        <v>6.96</v>
-      </c>
-      <c r="G29" s="20">
-        <v>10</v>
-      </c>
-      <c r="H29" s="24">
-        <f t="shared" si="0"/>
-        <v>5.5460000000000003</v>
-      </c>
-      <c r="I29" s="33" t="s">
+      </c>
+      <c r="D29" s="0">
+        <f>(C29*C$2+D29*D$2+E29*E$2+F29*F$2+G29*G$2)/100</f>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2757,29 +2277,13 @@
       <c r="B30" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="20">
-        <f>TRUNC('Práctica 1'!L29,2)</f>
-        <v>6.35</v>
-      </c>
-      <c r="D30" s="20">
-        <f>TRUNC('Práctica 2'!P30,2)</f>
-        <v>9.5</v>
-      </c>
-      <c r="E30" s="20">
-        <f>TRUNC('Práctica 3'!J29,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="20">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20">
-        <v>10</v>
-      </c>
-      <c r="H30" s="24">
-        <f t="shared" si="0"/>
-        <v>6.835</v>
-      </c>
-      <c r="I30" s="33" t="s">
+      <c r="C30" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D30" s="0">
+        <f>(C30*C$2+D30*D$2+E30*E$2+F30*F$2+G30*G$2)/100</f>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2790,30 +2294,13 @@
       <c r="B31" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="20">
-        <f>TRUNC('Práctica 1'!L30,2)</f>
-        <v>6.75</v>
-      </c>
-      <c r="D31" s="20">
-        <f>TRUNC('Práctica 2'!P31,2)</f>
-        <v>9.66</v>
-      </c>
-      <c r="E31" s="20">
-        <f>TRUNC('Práctica 3'!J30,2)</f>
-        <v>8</v>
-      </c>
-      <c r="F31" s="20">
+      <c r="C31" s="0">
         <f>TRUNC('Examen 1'!Q30,2)</f>
-        <v>9.66</v>
-      </c>
-      <c r="G31" s="20">
-        <v>9</v>
-      </c>
-      <c r="H31" s="24">
-        <f t="shared" si="0"/>
-        <v>8.8049999999999997</v>
-      </c>
-      <c r="I31" s="33" t="s">
+      </c>
+      <c r="D31" s="0">
+        <f>(C31*C$2+D31*D$2+E31*E$2+F31*F$2+G31*G$2)/100</f>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -2824,30 +2311,13 @@
       <c r="B32" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="20">
-        <f>TRUNC('Práctica 1'!L31,2)</f>
-        <v>6.75</v>
-      </c>
-      <c r="D32" s="20">
-        <f>TRUNC('Práctica 2'!P32,2)</f>
-        <v>7.33</v>
-      </c>
-      <c r="E32" s="20">
-        <f>TRUNC('Práctica 3'!J31,2)</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="20">
+      <c r="C32" s="0">
         <f>TRUNC('Examen 1'!Q31,2)</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="G32" s="20">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24">
-        <f t="shared" si="0"/>
-        <v>5.9289999999999994</v>
-      </c>
-      <c r="I32" s="33" t="s">
+      </c>
+      <c r="D32" s="0">
+        <f>(C32*C$2+D32*D$2+E32*E$2+F32*F$2+G32*G$2)/100</f>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2858,30 +2328,13 @@
       <c r="B33" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="20">
-        <f>TRUNC('Práctica 1'!L32,2)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="20">
-        <f>TRUNC('Práctica 2'!P33,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <f>TRUNC('Práctica 3'!J32,2)</f>
-        <v>5</v>
-      </c>
-      <c r="F33" s="20">
+      <c r="C33" s="0">
         <f>TRUNC('Examen 1'!Q32,2)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="20">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I33" s="33" t="s">
+      </c>
+      <c r="D33" s="0">
+        <f>(C33*C$2+D33*D$2+E33*E$2+F33*F$2+G33*G$2)/100</f>
+      </c>
+      <c r="E33" t="s" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2889,27 +2342,10 @@
       <c r="B34" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="2">
-        <f>COUNTIF(C5:C33,"&lt;5")</f>
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" ref="D34:G34" si="1">COUNTIF(D5:D33,"&lt;5")</f>
-        <v>9</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="C34" s="0">
+        <f>COUNTIF(F5:F33,"&lt;5")</f>
+      </c>
+      <c r="D34" s="0"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:H33">
@@ -2932,7 +2368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
@@ -2940,11 +2376,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="8" width="55.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="55.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2954,34 +2399,31 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="I1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="J1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="K1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2992,35 +2434,32 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="D2" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="E2" t="n">
         <v>0.2</v>
       </c>
-      <c r="F2" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="G2" t="n">
         <v>0.1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="H2" t="n">
         <v>0.15</v>
       </c>
-      <c r="J2" s="12">
+      <c r="I2" t="n">
         <v>0.5</v>
       </c>
-      <c r="K2" s="36">
-        <v>0</v>
-      </c>
-      <c r="L2" s="37">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3030,34 +2469,31 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="J3" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="K3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3068,38 +2504,34 @@
       <c r="B4" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3">
-        <v>8</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="17">
+      <c r="K4">
         <f>(C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+H4*H$2+I4*I$2)-J4*J$2</f>
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="N4" s="44"/>
+      </c>
+      <c r="M4"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -3108,36 +2540,32 @@
       <c r="B5" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="C5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="17">
-        <f t="shared" ref="L5:L33" si="0">(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2+I5*I$2)-J5*J$2</f>
-        <v>9.8000000000000007</v>
+      <c r="K5">
+        <f>(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2+I5*I$2)-J5*J$2</f>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,36 +2575,32 @@
       <c r="B6" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="3">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="C6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="K6">
+        <f>(C6*C$2+D6*D$2+E6*E$2+F6*F$2+G6*G$2+H6*H$2+I6*I$2)-J6*J$2</f>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,36 +2610,32 @@
       <c r="B7" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="17">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+      <c r="K7">
+        <f>(C7*C$2+D7*D$2+E7*E$2+F7*F$2+G7*G$2+H7*H$2+I7*I$2)-J7*J$2</f>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,36 +2645,32 @@
       <c r="B8" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="3">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="C8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="17">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
+      <c r="K8">
+        <f>(C8*C$2+D8*D$2+E8*E$2+F8*F$2+G8*G$2+H8*H$2+I8*I$2)-J8*J$2</f>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,36 +2680,32 @@
       <c r="B9" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17">
-        <f t="shared" si="0"/>
-        <v>7.35</v>
+      <c r="K9">
+        <f>(C9*C$2+D9*D$2+E9*E$2+F9*F$2+G9*G$2+H9*H$2+I9*I$2)-J9*J$2</f>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3303,36 +2715,32 @@
       <c r="B10" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="17">
-        <f t="shared" si="0"/>
-        <v>9.1</v>
+      <c r="K10">
+        <f>(C10*C$2+D10*D$2+E10*E$2+F10*F$2+G10*G$2+H10*H$2+I10*I$2)-J10*J$2</f>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3342,36 +2750,32 @@
       <c r="B11" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="C11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="17">
-        <f t="shared" si="0"/>
-        <v>6.6499999999999995</v>
+      <c r="K11">
+        <f>(C11*C$2+D11*D$2+E11*E$2+F11*F$2+G11*G$2+H11*H$2+I11*I$2)-J11*J$2</f>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,36 +2785,32 @@
       <c r="B12" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+      <c r="K12">
+        <f>(C12*C$2+D12*D$2+E12*E$2+F12*F$2+G12*G$2+H12*H$2+I12*I$2)-J12*J$2</f>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,36 +2820,32 @@
       <c r="B13" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="17">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+      <c r="K13">
+        <f>(C13*C$2+D13*D$2+E13*E$2+F13*F$2+G13*G$2+H13*H$2+I13*I$2)-J13*J$2</f>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,36 +2855,32 @@
       <c r="B14" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="17">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
+      <c r="K14">
+        <f>(C14*C$2+D14*D$2+E14*E$2+F14*F$2+G14*G$2+H14*H$2+I14*I$2)-J14*J$2</f>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,36 +2890,32 @@
       <c r="B15" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="3">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="C15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="17">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
+      <c r="K15">
+        <f>(C15*C$2+D15*D$2+E15*E$2+F15*F$2+G15*G$2+H15*H$2+I15*I$2)-J15*J$2</f>
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3537,36 +2925,32 @@
       <c r="B16" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="3">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>10</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="C16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="K16">
+        <f>(C16*C$2+D16*D$2+E16*E$2+F16*F$2+G16*G$2+H16*H$2+I16*I$2)-J16*J$2</f>
       </c>
     </row>
     <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3576,36 +2960,32 @@
       <c r="B17" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="C17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="17">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
+      <c r="K17">
+        <f>(C17*C$2+D17*D$2+E17*E$2+F17*F$2+G17*G$2+H17*H$2+I17*I$2)-J17*J$2</f>
       </c>
     </row>
     <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3615,36 +2995,32 @@
       <c r="B18" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="C18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="17">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+      <c r="K18">
+        <f>(C18*C$2+D18*D$2+E18*E$2+F18*F$2+G18*G$2+H18*H$2+I18*I$2)-J18*J$2</f>
       </c>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3654,36 +3030,32 @@
       <c r="B19" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>6</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="C19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="17">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
+      <c r="K19">
+        <f>(C19*C$2+D19*D$2+E19*E$2+F19*F$2+G19*G$2+H19*H$2+I19*I$2)-J19*J$2</f>
       </c>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3693,36 +3065,32 @@
       <c r="B20" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="C20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="17">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
+      <c r="K20">
+        <f>(C20*C$2+D20*D$2+E20*E$2+F20*F$2+G20*G$2+H20*H$2+I20*I$2)-J20*J$2</f>
       </c>
     </row>
     <row r="21" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3732,36 +3100,32 @@
       <c r="B21" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3">
-        <v>8</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="17">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
+      <c r="K21">
+        <f>(C21*C$2+D21*D$2+E21*E$2+F21*F$2+G21*G$2+H21*H$2+I21*I$2)-J21*J$2</f>
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,36 +3135,32 @@
       <c r="B22" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="C22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="17">
-        <f t="shared" si="0"/>
-        <v>7.9499999999999993</v>
+      <c r="K22">
+        <f>(C22*C$2+D22*D$2+E22*E$2+F22*F$2+G22*G$2+H22*H$2+I22*I$2)-J22*J$2</f>
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3810,36 +3170,32 @@
       <c r="B23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="K23">
+        <f>(C23*C$2+D23*D$2+E23*E$2+F23*F$2+G23*G$2+H23*H$2+I23*I$2)-J23*J$2</f>
       </c>
     </row>
     <row r="24" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,36 +3205,32 @@
       <c r="B24" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>10</v>
-      </c>
-      <c r="I24" s="3">
-        <v>10</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="C24" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="K24">
+        <f>(C24*C$2+D24*D$2+E24*E$2+F24*F$2+G24*G$2+H24*H$2+I24*I$2)-J24*J$2</f>
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3888,36 +3240,32 @@
       <c r="B25" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="3">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="C25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="17">
-        <f t="shared" si="0"/>
-        <v>5.05</v>
+      <c r="K25">
+        <f>(C25*C$2+D25*D$2+E25*E$2+F25*F$2+G25*G$2+H25*H$2+I25*I$2)-J25*J$2</f>
       </c>
     </row>
     <row r="26" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,36 +3275,32 @@
       <c r="B26" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="3">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>10</v>
-      </c>
-      <c r="I26" s="3">
-        <v>8</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="C26" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="17">
-        <f t="shared" si="0"/>
-        <v>7.7</v>
+      <c r="K26">
+        <f>(C26*C$2+D26*D$2+E26*E$2+F26*F$2+G26*G$2+H26*H$2+I26*I$2)-J26*J$2</f>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3966,36 +3310,32 @@
       <c r="B27" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3">
-        <v>10</v>
-      </c>
-      <c r="H27" s="3">
-        <v>10</v>
-      </c>
-      <c r="I27" s="3">
-        <v>10</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="C27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="K27">
+        <f>(C27*C$2+D27*D$2+E27*E$2+F27*F$2+G27*G$2+H27*H$2+I27*I$2)-J27*J$2</f>
       </c>
     </row>
     <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,36 +3345,32 @@
       <c r="B28" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3">
-        <v>8</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="C28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="17">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
+      <c r="K28">
+        <f>(C28*C$2+D28*D$2+E28*E$2+F28*F$2+G28*G$2+H28*H$2+I28*I$2)-J28*J$2</f>
       </c>
     </row>
     <row r="29" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4044,36 +3380,32 @@
       <c r="B29" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="3">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>6</v>
-      </c>
-      <c r="I29" s="3">
-        <v>7</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="C29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="17">
-        <f t="shared" si="0"/>
-        <v>6.3500000000000005</v>
+      <c r="K29">
+        <f>(C29*C$2+D29*D$2+E29*E$2+F29*F$2+G29*G$2+H29*H$2+I29*I$2)-J29*J$2</f>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,36 +3415,32 @@
       <c r="B30" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="3">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="C30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="17">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
+      <c r="K30">
+        <f>(C30*C$2+D30*D$2+E30*E$2+F30*F$2+G30*G$2+H30*H$2+I30*I$2)-J30*J$2</f>
       </c>
     </row>
     <row r="31" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4122,36 +3450,32 @@
       <c r="B31" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="3">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3">
-        <v>9</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>5</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="s">
+      <c r="C31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="17">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
+      <c r="K31">
+        <f>(C31*C$2+D31*D$2+E31*E$2+F31*F$2+G31*G$2+H31*H$2+I31*I$2)-J31*J$2</f>
       </c>
     </row>
     <row r="32" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4161,36 +3485,32 @@
       <c r="B32" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="K32">
+        <f>(C32*C$2+D32*D$2+E32*E$2+F32*F$2+G32*G$2+H32*H$2+I32*I$2)-J32*J$2</f>
       </c>
     </row>
     <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,36 +3520,32 @@
       <c r="B33" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="K33">
+        <f>(C33*C$2+D33*D$2+E33*E$2+F33*F$2+G33*G$2+H33*H$2+I33*I$2)-J33*J$2</f>
       </c>
     </row>
   </sheetData>

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="188">
   <si>
     <t>Apellidos</t>
   </si>
@@ -570,6 +570,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>adsfgwsdfg</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>ex1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1767,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1768,9 +1780,9 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="10.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="10.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
@@ -1785,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>164</v>
@@ -1793,6 +1805,9 @@
       <c r="E1" t="s" s="0">
         <v>148</v>
       </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -1802,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>100.0</v>
@@ -1810,6 +1825,9 @@
       <c r="E2" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="F2" t="n">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1826,6 +1844,9 @@
       </c>
       <c r="E3" t="s" s="0">
         <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,6 +1865,9 @@
       <c r="E4" t="s" s="0">
         <v>156</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -1861,6 +1885,9 @@
       <c r="E5" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -1878,6 +1905,9 @@
       <c r="E6" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1895,6 +1925,9 @@
       <c r="E7" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -1912,6 +1945,9 @@
       <c r="E8" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -1929,6 +1965,9 @@
       <c r="E9" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
@@ -1946,6 +1985,9 @@
       <c r="E10" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -1963,6 +2005,9 @@
       <c r="E11" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -1980,6 +2025,9 @@
       <c r="E12" t="s" s="0">
         <v>159</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -1997,6 +2045,9 @@
       <c r="E13" t="s" s="0">
         <v>159</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -2014,6 +2065,9 @@
       <c r="E14" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -2031,6 +2085,9 @@
       <c r="E15" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -2048,6 +2105,9 @@
       <c r="E16" t="s" s="0">
         <v>159</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
@@ -2065,6 +2125,9 @@
       <c r="E17" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -2082,6 +2145,9 @@
       <c r="E18" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
@@ -2099,6 +2165,9 @@
       <c r="E19" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
@@ -2116,6 +2185,9 @@
       <c r="E20" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
@@ -2133,6 +2205,9 @@
       <c r="E21" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
@@ -2150,6 +2225,9 @@
       <c r="E22" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
@@ -2167,6 +2245,9 @@
       <c r="E23" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
@@ -2184,6 +2265,9 @@
       <c r="E24" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
@@ -2201,6 +2285,9 @@
       <c r="E25" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
@@ -2218,6 +2305,9 @@
       <c r="E26" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
@@ -2235,6 +2325,9 @@
       <c r="E27" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
@@ -2252,6 +2345,9 @@
       <c r="E28" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
@@ -2269,6 +2365,9 @@
       <c r="E29" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
@@ -2286,6 +2385,9 @@
       <c r="E30" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
@@ -2303,6 +2405,9 @@
       <c r="E31" t="s" s="0">
         <v>157</v>
       </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
@@ -2320,6 +2425,9 @@
       <c r="E32" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
@@ -2337,6 +2445,9 @@
       <c r="E33" t="s" s="0">
         <v>158</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -2346,6 +2457,9 @@
         <f>COUNTIF(F5:F33,"&lt;5")</f>
       </c>
       <c r="D34" s="0"/>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:H33">
@@ -2368,7 +2482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
@@ -2376,7 +2490,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
@@ -2384,9 +2498,9 @@
     <col min="6" max="6" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="11" width="55.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="8" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="11" width="55.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="10.0" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="10.0" collapsed="true"/>
@@ -2409,21 +2523,18 @@
         <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2447,18 +2558,15 @@
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
         <v>100.0</v>
       </c>
     </row>
@@ -2479,21 +2587,18 @@
         <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2514,24 +2619,22 @@
         <v>8.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="K4">
-        <f>(C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+H4*H$2+I4*I$2)-J4*J$2</f>
-      </c>
-      <c r="M4"/>
+      <c r="J4" t="n">
+        <f>0</f>
+        <v>0.0</v>
+      </c>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -2556,16 +2659,14 @@
         <v>10.0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="K5">
-        <f>(C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2+I5*I$2)-J5*J$2</f>
+      <c r="J5" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,22 +2686,20 @@
         <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
         <v>10.0</v>
       </c>
       <c r="H6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="K6">
-        <f>(C6*C$2+D6*D$2+E6*E$2+F6*F$2+G6*G$2+H6*H$2+I6*I$2)-J6*J$2</f>
+      <c r="J6" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,16 +2725,14 @@
         <v>10.0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="K7">
-        <f>(C7*C$2+D7*D$2+E7*E$2+F7*F$2+G7*G$2+H7*H$2+I7*I$2)-J7*J$2</f>
+      <c r="J7" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,22 +2752,20 @@
         <v>10.0</v>
       </c>
       <c r="F8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>5.0</v>
       </c>
-      <c r="G8" t="n">
-        <v>10.0</v>
-      </c>
       <c r="H8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="K8">
-        <f>(C8*C$2+D8*D$2+E8*E$2+F8*F$2+G8*G$2+H8*H$2+I8*I$2)-J8*J$2</f>
+      <c r="J8" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,22 +2785,20 @@
         <v>10.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="K9">
-        <f>(C9*C$2+D9*D$2+E9*E$2+F9*F$2+G9*G$2+H9*H$2+I9*I$2)-J9*J$2</f>
+      <c r="J9" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2731,16 +2824,14 @@
         <v>10.0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="K10">
-        <f>(C10*C$2+D10*D$2+E10*E$2+F10*F$2+G10*G$2+H10*H$2+I10*I$2)-J10*J$2</f>
+      <c r="J10" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2760,22 +2851,20 @@
         <v>8.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="K11">
-        <f>(C11*C$2+D11*D$2+E11*E$2+F11*F$2+G11*G$2+H11*H$2+I11*I$2)-J11*J$2</f>
+      <c r="J11" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,14 +2892,12 @@
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>37</v>
       </c>
-      <c r="K12">
-        <f>(C12*C$2+D12*D$2+E12*E$2+F12*F$2+G12*G$2+H12*H$2+I12*I$2)-J12*J$2</f>
+      <c r="J12" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,14 +2925,12 @@
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="K13">
-        <f>(C13*C$2+D13*D$2+E13*E$2+F13*F$2+G13*G$2+H13*H$2+I13*I$2)-J13*J$2</f>
+      <c r="J13" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,22 +2950,20 @@
         <v>8.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" t="n">
         <v>8.0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="K14">
-        <f>(C14*C$2+D14*D$2+E14*E$2+F14*F$2+G14*G$2+H14*H$2+I14*I$2)-J14*J$2</f>
+      <c r="J14" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2900,22 +2983,20 @@
         <v>6.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J15" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="K15">
-        <f>(C15*C$2+D15*D$2+E15*E$2+F15*F$2+G15*G$2+H15*H$2+I15*I$2)-J15*J$2</f>
+      <c r="J15" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,22 +3016,20 @@
         <v>9.0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H16" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I16" t="n">
         <v>1.0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="K16">
-        <f>(C16*C$2+D16*D$2+E16*E$2+F16*F$2+G16*G$2+H16*H$2+I16*I$2)-J16*J$2</f>
+      <c r="J16" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2970,22 +3049,20 @@
         <v>8.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" t="n">
         <v>8.0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="K17">
-        <f>(C17*C$2+D17*D$2+E17*E$2+F17*F$2+G17*G$2+H17*H$2+I17*I$2)-J17*J$2</f>
+      <c r="J17" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,22 +3082,20 @@
         <v>10.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G18" t="n">
         <v>8.0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <f>(C18*C$2+D18*D$2+E18*E$2+F18*F$2+G18*G$2+H18*H$2+I18*I$2)-J18*J$2</f>
+      <c r="J18" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3043,19 +3118,17 @@
         <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="K19">
-        <f>(C19*C$2+D19*D$2+E19*E$2+F19*F$2+G19*G$2+H19*H$2+I19*I$2)-J19*J$2</f>
+      <c r="J19" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,22 +3148,20 @@
         <v>9.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G20" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="K20">
-        <f>(C20*C$2+D20*D$2+E20*E$2+F20*F$2+G20*G$2+H20*H$2+I20*I$2)-J20*J$2</f>
+      <c r="J20" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,22 +3181,20 @@
         <v>10.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J21" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="s">
         <v>40</v>
       </c>
-      <c r="K21">
-        <f>(C21*C$2+D21*D$2+E21*E$2+F21*F$2+G21*G$2+H21*H$2+I21*I$2)-J21*J$2</f>
+      <c r="J21" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,22 +3214,20 @@
         <v>8.0</v>
       </c>
       <c r="F22" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="G22" t="n">
         <v>5.0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J22" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="s">
         <v>35</v>
       </c>
-      <c r="K22">
-        <f>(C22*C$2+D22*D$2+E22*E$2+F22*F$2+G22*G$2+H22*H$2+I22*I$2)-J22*J$2</f>
+      <c r="J22" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,14 +3255,12 @@
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="K23">
-        <f>(C23*C$2+D23*D$2+E23*E$2+F23*F$2+G23*G$2+H23*H$2+I23*I$2)-J23*J$2</f>
+      <c r="J23" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3215,22 +3280,20 @@
         <v>10.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="G24" t="n">
         <v>10.0</v>
       </c>
       <c r="H24" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J24" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="s">
         <v>31</v>
       </c>
-      <c r="K24">
-        <f>(C24*C$2+D24*D$2+E24*E$2+F24*F$2+G24*G$2+H24*H$2+I24*I$2)-J24*J$2</f>
+      <c r="J24" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3258,14 +3321,12 @@
       <c r="H25" t="n">
         <v>0.0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" t="s">
         <v>17</v>
       </c>
-      <c r="K25">
-        <f>(C25*C$2+D25*D$2+E25*E$2+F25*F$2+G25*G$2+H25*H$2+I25*I$2)-J25*J$2</f>
+      <c r="J25" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3285,22 +3346,20 @@
         <v>10.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G26" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J26" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="K26">
-        <f>(C26*C$2+D26*D$2+E26*E$2+F26*F$2+G26*G$2+H26*H$2+I26*I$2)-J26*J$2</f>
+      <c r="J26" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,16 +3385,14 @@
         <v>10.0</v>
       </c>
       <c r="H27" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J27" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="K27">
-        <f>(C27*C$2+D27*D$2+E27*E$2+F27*F$2+G27*G$2+H27*H$2+I27*I$2)-J27*J$2</f>
+      <c r="J27" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,22 +3412,20 @@
         <v>10.0</v>
       </c>
       <c r="F28" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J28" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="s">
         <v>32</v>
       </c>
-      <c r="K28">
-        <f>(C28*C$2+D28*D$2+E28*E$2+F28*F$2+G28*G$2+H28*H$2+I28*I$2)-J28*J$2</f>
+      <c r="J28" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,22 +3445,20 @@
         <v>8.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="s">
         <v>33</v>
       </c>
-      <c r="K29">
-        <f>(C29*C$2+D29*D$2+E29*E$2+F29*F$2+G29*G$2+H29*H$2+I29*I$2)-J29*J$2</f>
+      <c r="J29" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3425,22 +3478,20 @@
         <v>10.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G30" t="n">
         <v>5.0</v>
       </c>
       <c r="H30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J30" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="s">
         <v>27</v>
       </c>
-      <c r="K30">
-        <f>(C30*C$2+D30*D$2+E30*E$2+F30*F$2+G30*G$2+H30*H$2+I30*I$2)-J30*J$2</f>
+      <c r="J30" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,22 +3511,20 @@
         <v>9.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="s">
         <v>15</v>
       </c>
-      <c r="K31">
-        <f>(C31*C$2+D31*D$2+E31*E$2+F31*F$2+G31*G$2+H31*H$2+I31*I$2)-J31*J$2</f>
+      <c r="J31" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3503,14 +3552,12 @@
       <c r="H32" t="n">
         <v>0.0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" t="s">
         <v>39</v>
       </c>
-      <c r="K32">
-        <f>(C32*C$2+D32*D$2+E32*E$2+F32*F$2+G32*G$2+H32*H$2+I32*I$2)-J32*J$2</f>
+      <c r="J32" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3538,14 +3585,12 @@
       <c r="H33" t="n">
         <v>0.0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" t="s">
         <v>39</v>
       </c>
-      <c r="K33">
-        <f>(C33*C$2+D33*D$2+E33*E$2+F33*F$2+G33*G$2+H33*H$2+I33*I$2)-J33*J$2</f>
+      <c r="J33" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3634,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
@@ -3597,11 +3642,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="14" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="8" width="38.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="11" width="38.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="6.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="11" width="10.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="10.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3611,46 +3667,37 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="H1" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="I1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="J1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="K1" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="L1" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="M1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3661,47 +3708,38 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" t="n">
         <v>0.125</v>
       </c>
-      <c r="E2" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="E2" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="F2" t="n">
         <v>0.1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="G2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L2" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M2" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N2" s="12">
+      <c r="H2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.25</v>
       </c>
-      <c r="O2" s="43">
-        <v>0</v>
-      </c>
-      <c r="P2" s="42">
-        <v>100</v>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,46 +3749,37 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="L3" t="s">
         <v>148</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3761,48 +3790,39 @@
       <c r="B4" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="17">
-        <f>((C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+H4*H$2+K4*K$2+I4*I$2+J4*J$2+L4*L$2+M4*M$2)-N4*N$2)*10/3</f>
-        <v>0</v>
+      <c r="M4" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3812,48 +3832,39 @@
       <c r="B5" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="17">
-        <f t="shared" ref="P5:P33" si="0">((C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+H5*H$2+K5*K$2+I5*I$2+J5*J$2+L5*L$2+M5*M$2)-N5*N$2)*10/3</f>
-        <v>9.0833333333333357</v>
+      <c r="M5" t="n">
+        <f>0</f>
+        <v>9.083333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3863,47 +3874,38 @@
       <c r="B6" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="17">
-        <f t="shared" si="0"/>
+      <c r="M6" t="n">
+        <f>0</f>
         <v>2.25</v>
       </c>
     </row>
@@ -3914,48 +3916,39 @@
       <c r="B7" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="C7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="17">
-        <f t="shared" si="0"/>
-        <v>9.4999999999999982</v>
+      <c r="M7" t="n">
+        <f>0</f>
+        <v>9.499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,47 +3958,38 @@
       <c r="B8" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="C8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="17">
-        <f t="shared" si="0"/>
+      <c r="M8" t="n">
+        <f>0</f>
         <v>9.5</v>
       </c>
     </row>
@@ -4016,47 +4000,38 @@
       <c r="B9" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" t="n">
         <v>1.5</v>
       </c>
-      <c r="E9" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="17">
-        <f t="shared" si="0"/>
+      <c r="M9" t="n">
+        <f>0</f>
         <v>2.25</v>
       </c>
     </row>
@@ -4067,47 +4042,38 @@
       <c r="B10" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
         <v>2.5</v>
       </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="E10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="17">
-        <f t="shared" si="0"/>
+      <c r="M10" t="n">
+        <f>0</f>
         <v>7.333333333333333</v>
       </c>
     </row>
@@ -4118,48 +4084,39 @@
       <c r="B11" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D11" t="n">
         <v>2.5</v>
       </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="E11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="17">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000018</v>
+      <c r="M11" t="n">
+        <f>0</f>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4169,47 +4126,38 @@
       <c r="B12" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>-3</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="C12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="17">
-        <f t="shared" si="0"/>
+      <c r="M12" t="n">
+        <f>0</f>
         <v>2.0833333333333335</v>
       </c>
     </row>
@@ -4220,48 +4168,39 @@
       <c r="B13" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M13" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,47 +4210,38 @@
       <c r="B14" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="C14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="17">
-        <f t="shared" si="0"/>
+      <c r="M14" t="n">
+        <f>0</f>
         <v>6.5</v>
       </c>
     </row>
@@ -4322,47 +4252,38 @@
       <c r="B15" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="C15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="17">
-        <f t="shared" si="0"/>
+      <c r="M15" t="n">
+        <f>0</f>
         <v>3.0833333333333335</v>
       </c>
     </row>
@@ -4373,48 +4294,39 @@
       <c r="B16" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M16" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,48 +4336,39 @@
       <c r="B17" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="C17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="17">
-        <f t="shared" si="0"/>
-        <v>8.9166666666666696</v>
+      <c r="M17" t="n">
+        <f>0</f>
+        <v>8.91666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,47 +4378,38 @@
       <c r="B18" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" t="n">
         <v>2.5</v>
       </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="17">
-        <f t="shared" si="0"/>
+      <c r="M18" t="n">
+        <f>0</f>
         <v>2.2083333333333335</v>
       </c>
     </row>
@@ -4526,48 +4420,39 @@
       <c r="B19" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2.5</v>
       </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="G19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="17">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000018</v>
+      <c r="M19" t="n">
+        <f>0</f>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4577,48 +4462,39 @@
       <c r="B20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="C20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="s">
         <v>66</v>
       </c>
-      <c r="P20" s="17">
-        <f t="shared" si="0"/>
-        <v>8.0833333333333339</v>
+      <c r="M20" t="n">
+        <f>0</f>
+        <v>8.083333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,48 +4504,39 @@
       <c r="B21" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="C21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.25</v>
       </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>3</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="s">
         <v>75</v>
       </c>
-      <c r="P21" s="17">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="M21" t="n">
+        <f>0</f>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4679,48 +4546,39 @@
       <c r="B22" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="13">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="C22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="17">
-        <f t="shared" si="0"/>
-        <v>9.0833333333333321</v>
+      <c r="M22" t="n">
+        <f>0</f>
+        <v>9.083333333333332</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4730,47 +4588,38 @@
       <c r="B23" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-      <c r="N23" s="13">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="C23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="17">
-        <f t="shared" si="0"/>
+      <c r="M23" t="n">
+        <f>0</f>
         <v>6.416666666666667</v>
       </c>
     </row>
@@ -4781,48 +4630,39 @@
       <c r="B24" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D24" t="n">
         <v>2.75</v>
       </c>
-      <c r="F24" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="13">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="E24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="17">
-        <f t="shared" si="0"/>
-        <v>9.6458333333333339</v>
+      <c r="M24" t="n">
+        <f>0</f>
+        <v>9.645833333333334</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4832,47 +4672,38 @@
       <c r="B25" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="13">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="C25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="17">
-        <f t="shared" si="0"/>
+      <c r="M25" t="n">
+        <f>0</f>
         <v>3.1666666666666665</v>
       </c>
     </row>
@@ -4883,48 +4714,39 @@
       <c r="B26" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="13">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="C26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="17">
-        <f t="shared" si="0"/>
-        <v>8.5833333333333339</v>
+      <c r="M26" t="n">
+        <f>0</f>
+        <v>8.583333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,48 +4756,39 @@
       <c r="B27" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" t="n">
         <v>2.5</v>
       </c>
-      <c r="E27" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="D27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E27" t="n">
         <v>1.5</v>
       </c>
-      <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
-      <c r="M27" s="3">
-        <v>3</v>
-      </c>
-      <c r="N27" s="13">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="F27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="17">
-        <f t="shared" si="0"/>
-        <v>8.5833333333333339</v>
+      <c r="M27" t="n">
+        <f>0</f>
+        <v>8.583333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,48 +4798,39 @@
       <c r="B28" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>3</v>
-      </c>
-      <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3</v>
-      </c>
-      <c r="K28" s="3">
-        <v>2</v>
-      </c>
-      <c r="L28" s="3">
-        <v>3</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="13">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="C28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="s">
         <v>68</v>
       </c>
-      <c r="P28" s="17">
-        <f t="shared" si="0"/>
-        <v>9.0833333333333321</v>
+      <c r="M28" t="n">
+        <f>0</f>
+        <v>9.083333333333332</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5036,47 +4840,38 @@
       <c r="B29" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="13">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="C29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="17">
-        <f t="shared" si="0"/>
+      <c r="M29" t="n">
+        <f>0</f>
         <v>5.5</v>
       </c>
     </row>
@@ -5087,48 +4882,39 @@
       <c r="B30" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="C30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="s">
         <v>65</v>
       </c>
-      <c r="P30" s="17">
-        <f t="shared" si="0"/>
-        <v>9.4999999999999982</v>
+      <c r="M30" t="n">
+        <f>0</f>
+        <v>9.499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5138,48 +4924,39 @@
       <c r="B31" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3">
-        <v>3</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3</v>
-      </c>
-      <c r="I31" s="3">
-        <v>3</v>
-      </c>
-      <c r="J31" s="3">
-        <v>3</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="13">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="C31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="s">
         <v>52</v>
       </c>
-      <c r="P31" s="17">
-        <f t="shared" si="0"/>
-        <v>9.6666666666666661</v>
+      <c r="M31" t="n">
+        <f>0</f>
+        <v>9.666666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,48 +4966,39 @@
       <c r="B32" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6</v>
-      </c>
-      <c r="N32" s="13">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="C32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="17">
-        <f t="shared" si="0"/>
-        <v>7.3333333333333321</v>
+      <c r="M32" t="n">
+        <f>0</f>
+        <v>7.333333333333332</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5240,48 +5008,39 @@
       <c r="B33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="13">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M33" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -5409,22 +5168,22 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="9" t="n">
         <v>0.1</v>
       </c>
       <c r="I2" s="36">
@@ -6496,7 +6255,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6507,11 +6266,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="15" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="8" width="45.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="4.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="11" width="45.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="6.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="11" width="10.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="10.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="8" width="10.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6530,40 +6301,28 @@
       <c r="E1" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="J1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="K1" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="L1" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="M1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6574,50 +6333,38 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="9" t="n">
         <v>0.15</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.05</v>
       </c>
-      <c r="G2" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="H2" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" t="n">
         <v>0.05</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" t="n">
         <v>0.1</v>
       </c>
-      <c r="L2" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="41">
-        <v>100</v>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6636,40 +6383,28 @@
       <c r="E3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="I3" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="J3" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="L3" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6689,41 +6424,29 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3</v>
-      </c>
-      <c r="N4" s="27">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="F4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="17">
-        <f>((M4*M$2+C4*C$2+D4*D$2+E4*E$2+F4*F$2+G4*G$2+J4*J$2+H4*H$2+I4*I$2+K4*K$2+L4*L$2))*10/3+N4*N$2-O4*O$2</f>
+      <c r="M4" t="n">
+        <f>0</f>
         <v>11.099999999999998</v>
       </c>
     </row>
@@ -6743,37 +6466,29 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
         <v>139</v>
       </c>
-      <c r="Q5" s="17">
-        <f>((M5*M$2+C5*C$2+D5*D$2+E5*E$2+F5*F$2+G5*G$2+J5*J$2+H5*H$2+I5*I$2+K5*K$2+L5*L$2))*10/3+N5*N$2-O5*O$2</f>
+      <c r="M5" t="n">
+        <f>0</f>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -6793,38 +6508,30 @@
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="17">
-        <f t="shared" ref="Q6:Q32" si="0">((M6*M$2+C6*C$2+D6*D$2+E6*E$2+F6*F$2+G6*G$2+J6*J$2+H6*H$2+I6*I$2+K6*K$2+L6*L$2))*10/3+N6*N$2-O6*O$2</f>
-        <v>7.9999999999999973</v>
+      <c r="M6" t="n">
+        <f>0</f>
+        <v>7.999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -6843,37 +6550,29 @@
       <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
         <v>139</v>
       </c>
-      <c r="Q7" s="17">
-        <f t="shared" si="0"/>
+      <c r="M7" t="n">
+        <f>0</f>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -6893,37 +6592,29 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="17">
-        <f t="shared" si="0"/>
+      <c r="M8" t="n">
+        <f>0</f>
         <v>5.5</v>
       </c>
     </row>
@@ -6943,38 +6634,30 @@
       <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="s">
+      <c r="F9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="17">
-        <f t="shared" si="0"/>
-        <v>9.1666666666666661</v>
+      <c r="M9" t="n">
+        <f>0</f>
+        <v>9.166666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -6993,38 +6676,30 @@
       <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="s">
         <v>130</v>
       </c>
-      <c r="Q10" s="17">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999973</v>
+      <c r="M10" t="n">
+        <f>0</f>
+        <v>7.999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7043,37 +6718,29 @@
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="s">
         <v>144</v>
       </c>
-      <c r="Q11" s="17">
-        <f t="shared" si="0"/>
+      <c r="M11" t="n">
+        <f>0</f>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -7093,38 +6760,30 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M12" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7143,40 +6802,30 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="s">
         <v>130</v>
       </c>
-      <c r="Q13" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="M13" t="n">
+        <f>0</f>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,37 +6844,29 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s">
         <v>133</v>
       </c>
-      <c r="Q14" s="17">
-        <f t="shared" si="0"/>
+      <c r="M14" t="n">
+        <f>0</f>
         <v>6.166666666666667</v>
       </c>
     </row>
@@ -7245,40 +6886,30 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="29" t="s">
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="s">
         <v>135</v>
       </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M15" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7297,40 +6928,30 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="27">
-        <v>3</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="0"/>
-        <v>6.6333333333333329</v>
+      <c r="M16" t="n">
+        <f>0</f>
+        <v>6.633333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7349,37 +6970,29 @@
       <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="13">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="s">
         <v>145</v>
       </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="0"/>
+      <c r="M17" t="n">
+        <f>0</f>
         <v>5.833333333333333</v>
       </c>
     </row>
@@ -7399,37 +7012,29 @@
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="F18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="0"/>
+      <c r="M18" t="n">
+        <f>0</f>
         <v>7.833333333333333</v>
       </c>
     </row>
@@ -7449,39 +7054,29 @@
       <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="s">
         <v>142</v>
       </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="0"/>
+      <c r="M19" t="n">
+        <f>0</f>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -7501,35 +7096,27 @@
       <c r="E20" s="2">
         <v>3</v>
       </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="13">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="17">
-        <f t="shared" si="0"/>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="n">
+        <f>0</f>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -7549,37 +7136,29 @@
       <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="13">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="s">
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="s">
         <v>138</v>
       </c>
-      <c r="Q21" s="17">
-        <f t="shared" si="0"/>
+      <c r="M21" t="n">
+        <f>0</f>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -7599,38 +7178,30 @@
       <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="13">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="F22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="s">
         <v>131</v>
       </c>
-      <c r="Q22" s="17">
-        <f t="shared" si="0"/>
-        <v>9.8333333333333321</v>
+      <c r="M22" t="n">
+        <f>0</f>
+        <v>9.833333333333332</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7649,39 +7220,29 @@
       <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="13">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="s">
+      <c r="F23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="s">
         <v>138</v>
       </c>
-      <c r="Q23" s="17">
-        <f t="shared" si="0"/>
+      <c r="M23" t="n">
+        <f>0</f>
         <v>10.999999999999998</v>
       </c>
     </row>
@@ -7701,35 +7262,27 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="7" t="s">
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" t="s">
         <v>131</v>
       </c>
-      <c r="Q24" s="17">
-        <f t="shared" si="0"/>
+      <c r="M24" t="n">
+        <f>0</f>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -7749,40 +7302,30 @@
       <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="27">
-        <v>1</v>
-      </c>
-      <c r="O25" s="13">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="s">
         <v>130</v>
       </c>
-      <c r="Q25" s="17">
-        <f t="shared" si="0"/>
-        <v>6.9333333333333327</v>
+      <c r="M25" t="n">
+        <f>0</f>
+        <v>6.933333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7801,38 +7344,30 @@
       <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="13">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7" t="s">
+      <c r="F26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="s">
         <v>132</v>
       </c>
-      <c r="Q26" s="17">
-        <f t="shared" si="0"/>
-        <v>9.8333333333333321</v>
+      <c r="M26" t="n">
+        <f>0</f>
+        <v>9.833333333333332</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7851,40 +7386,30 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="13">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7" t="s">
+      <c r="F27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="s">
         <v>141</v>
       </c>
-      <c r="Q27" s="17">
-        <f t="shared" si="0"/>
-        <v>9.4333333333333336</v>
+      <c r="M27" t="n">
+        <f>0</f>
+        <v>9.433333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7903,40 +7428,30 @@
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>3</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="27">
-        <v>3</v>
-      </c>
-      <c r="O28" s="13">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="s">
         <v>132</v>
       </c>
-      <c r="Q28" s="17">
-        <f t="shared" si="0"/>
-        <v>6.9666666666666668</v>
+      <c r="M28" t="n">
+        <f>0</f>
+        <v>6.966666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7955,39 +7470,29 @@
       <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <v>3</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="13">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="F29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="s">
         <v>137</v>
       </c>
-      <c r="Q29" s="17">
-        <f t="shared" si="0"/>
+      <c r="M29" t="n">
+        <f>0</f>
         <v>10.666666666666664</v>
       </c>
     </row>
@@ -8007,38 +7512,30 @@
       <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3</v>
-      </c>
-      <c r="K30" s="3">
-        <v>3</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="13">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7" t="s">
+      <c r="F30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="s">
         <v>143</v>
       </c>
-      <c r="Q30" s="17">
-        <f t="shared" si="0"/>
-        <v>9.6666666666666643</v>
+      <c r="M30" t="n">
+        <f>0</f>
+        <v>9.666666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8057,41 +7554,29 @@
       <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="3">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3">
-        <v>3</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3</v>
-      </c>
-      <c r="I31" s="3">
-        <v>3</v>
-      </c>
-      <c r="J31" s="3">
-        <v>3</v>
-      </c>
-      <c r="K31" s="3">
-        <v>3</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="27">
-        <v>3</v>
-      </c>
-      <c r="O31" s="13">
-        <v>0</v>
-      </c>
-      <c r="P31" s="29" t="s">
+      <c r="F31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="s">
         <v>135</v>
       </c>
-      <c r="Q31" s="17">
-        <f t="shared" si="0"/>
+      <c r="M31" t="n">
+        <f>0</f>
         <v>9.966666666666665</v>
       </c>
     </row>
@@ -8111,38 +7596,30 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="13">
-        <v>0</v>
-      </c>
-      <c r="P32" s="30" t="s">
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="s">
         <v>146</v>
       </c>
-      <c r="Q32" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M32" t="n">
+        <f>0</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="197">
   <si>
     <t>Apellidos</t>
   </si>
@@ -582,6 +582,33 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>exercise2</t>
+  </si>
+  <si>
+    <t>ex2</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ejercicio1</t>
+  </si>
+  <si>
+    <t>ej1</t>
+  </si>
+  <si>
+    <t>ejercicio2</t>
+  </si>
+  <si>
+    <t>ej2</t>
+  </si>
+  <si>
+    <t>ejercicio3</t>
+  </si>
+  <si>
+    <t>ej3</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1794,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1778,11 +1805,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="10.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
@@ -1806,7 +1833,13 @@
         <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,7 +1859,13 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1846,7 +1885,13 @@
         <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,6 +1913,12 @@
       <c r="F4" t="n">
         <v>0.0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -1888,6 +1939,12 @@
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -1908,6 +1965,12 @@
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1928,6 +1991,12 @@
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -1948,6 +2017,12 @@
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -1968,6 +2043,12 @@
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
@@ -1988,6 +2069,12 @@
       <c r="F10" t="n">
         <v>0.0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -2008,6 +2095,12 @@
       <c r="F11" t="n">
         <v>0.0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -2028,6 +2121,12 @@
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -2048,6 +2147,12 @@
       <c r="F13" t="n">
         <v>0.0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -2068,6 +2173,12 @@
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -2088,6 +2199,12 @@
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -2108,6 +2225,12 @@
       <c r="F16" t="n">
         <v>0.0</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
@@ -2128,6 +2251,12 @@
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -2148,6 +2277,12 @@
       <c r="F18" t="n">
         <v>0.0</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
@@ -2168,6 +2303,12 @@
       <c r="F19" t="n">
         <v>0.0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
@@ -2188,6 +2329,12 @@
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
@@ -2208,6 +2355,12 @@
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
@@ -2228,6 +2381,12 @@
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
@@ -2248,6 +2407,12 @@
       <c r="F23" t="n">
         <v>0.0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
@@ -2268,6 +2433,12 @@
       <c r="F24" t="n">
         <v>0.0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
@@ -2288,6 +2459,12 @@
       <c r="F25" t="n">
         <v>0.0</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
@@ -2308,6 +2485,12 @@
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
@@ -2328,6 +2511,12 @@
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
@@ -2348,6 +2537,12 @@
       <c r="F28" t="n">
         <v>0.0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
@@ -2368,6 +2563,12 @@
       <c r="F29" t="n">
         <v>0.0</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
@@ -2388,6 +2589,12 @@
       <c r="F30" t="n">
         <v>0.0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
@@ -2408,6 +2615,12 @@
       <c r="F31" t="n">
         <v>0.0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
@@ -2428,6 +2641,12 @@
       <c r="F32" t="n">
         <v>0.0</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
@@ -2448,6 +2667,12 @@
       <c r="F33" t="n">
         <v>0.0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -2458,6 +2683,12 @@
       </c>
       <c r="D34" s="0"/>
       <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/resources/ShowExcel.xlsx
+++ b/resources/ShowExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="197">
   <si>
     <t>Apellidos</t>
   </si>
